--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类居民消费价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类居民消费价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -507,5097 +507,5097 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.3</v>
+        <v>101.8</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="E3" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>102</v>
       </c>
-      <c r="F3" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>101.4</v>
-      </c>
       <c r="H3" t="n">
-        <v>104.6</v>
+        <v>109.3</v>
       </c>
       <c r="I3" t="n">
-        <v>100.4</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.2</v>
+        <v>106.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="E4" t="n">
-        <v>104.7</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>99.2</v>
+        <v>102.2</v>
       </c>
       <c r="G4" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="H4" t="n">
-        <v>105.1</v>
+        <v>110.8</v>
       </c>
       <c r="I4" t="n">
-        <v>98.3</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.8</v>
+        <v>98.2</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="E5" t="n">
-        <v>102.7</v>
+        <v>97.5</v>
       </c>
       <c r="F5" t="n">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>102</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>109.3</v>
+        <v>100.9</v>
       </c>
       <c r="I5" t="n">
-        <v>103.9</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>98.8</v>
       </c>
       <c r="F6" t="n">
-        <v>102.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>102.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>110.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>106.9</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.2</v>
+        <v>100.55895102</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>99.8</v>
+        <v>100.05843779</v>
       </c>
       <c r="E7" t="n">
-        <v>97.5</v>
+        <v>106.31679639</v>
       </c>
       <c r="F7" t="n">
-        <v>97</v>
+        <v>105.45279234</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59999999999999</v>
+        <v>100.566593</v>
       </c>
       <c r="H7" t="n">
-        <v>100.9</v>
+        <v>98.4297266</v>
       </c>
       <c r="I7" t="n">
-        <v>103.5</v>
+        <v>86.81450386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.59999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="E8" t="n">
-        <v>98.8</v>
+        <v>107</v>
       </c>
       <c r="F8" t="n">
-        <v>99.40000000000001</v>
+        <v>102.7</v>
       </c>
       <c r="G8" t="n">
-        <v>99.40000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="H8" t="n">
-        <v>96.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="I8" t="n">
-        <v>98.09999999999999</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.55895102</v>
+        <v>99.7</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>100.05843779</v>
+        <v>100.9</v>
       </c>
       <c r="E9" t="n">
-        <v>106.31679639</v>
+        <v>106.6</v>
       </c>
       <c r="F9" t="n">
-        <v>105.45279234</v>
+        <v>106.7</v>
       </c>
       <c r="G9" t="n">
-        <v>100.566593</v>
+        <v>103.3</v>
       </c>
       <c r="H9" t="n">
-        <v>98.4297266</v>
+        <v>99.7</v>
       </c>
       <c r="I9" t="n">
-        <v>86.81450386</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.6</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>100.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>107</v>
-      </c>
-      <c r="F10" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>95.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="E11" t="n">
-        <v>106.6</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
-        <v>106.7</v>
+        <v>96.8</v>
       </c>
       <c r="G11" t="n">
-        <v>103.3</v>
+        <v>101.4</v>
       </c>
       <c r="H11" t="n">
-        <v>99.7</v>
+        <v>104.6</v>
       </c>
       <c r="I11" t="n">
-        <v>108.7</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.09999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="E12" t="n">
-        <v>98.5</v>
+        <v>104.7</v>
       </c>
       <c r="F12" t="n">
-        <v>102.2</v>
+        <v>99.2</v>
       </c>
       <c r="G12" t="n">
-        <v>100.3</v>
+        <v>102.5</v>
       </c>
       <c r="H12" t="n">
         <v>105.1</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.2</v>
+        <v>104.3</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="E13" t="n">
-        <v>96.8</v>
+        <v>104.5</v>
       </c>
       <c r="F13" t="n">
-        <v>96.09999999999999</v>
+        <v>101.3</v>
       </c>
       <c r="G13" t="n">
-        <v>99.09999999999999</v>
+        <v>103.3</v>
       </c>
       <c r="H13" t="n">
-        <v>100.9</v>
+        <v>105.9</v>
       </c>
       <c r="I13" t="n">
-        <v>103.9</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98</v>
+        <v>111.8</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="E14" t="n">
-        <v>97.5</v>
+        <v>106</v>
       </c>
       <c r="F14" t="n">
-        <v>95.8</v>
+        <v>103.5</v>
       </c>
       <c r="G14" t="n">
-        <v>99</v>
+        <v>107.1</v>
       </c>
       <c r="H14" t="n">
-        <v>103.4</v>
+        <v>109.2</v>
       </c>
       <c r="I14" t="n">
-        <v>98.2</v>
+        <v>137.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.49282984</v>
+        <v>96.2</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>99.84128973</v>
+        <v>100.4</v>
       </c>
       <c r="E15" t="n">
-        <v>101.59065204</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>98.2879899</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>100.77093839</v>
+        <v>98.2</v>
       </c>
       <c r="H15" t="n">
-        <v>102.28902019</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>105.88566939</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.3</v>
+        <v>103.12333735</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.6</v>
+        <v>100.4545487</v>
       </c>
       <c r="E16" t="n">
-        <v>104.5</v>
+        <v>100.25737664</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3</v>
+        <v>99.50814097</v>
       </c>
       <c r="G16" t="n">
-        <v>103.3</v>
+        <v>99.90993810000001</v>
       </c>
       <c r="H16" t="n">
-        <v>105.9</v>
+        <v>104.13597207</v>
       </c>
       <c r="I16" t="n">
-        <v>107.9</v>
+        <v>90.82240367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>111.8</v>
+        <v>102.5</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="E17" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F17" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="G17" t="n">
-        <v>107.1</v>
+        <v>98.7</v>
       </c>
       <c r="H17" t="n">
-        <v>109.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>137.3</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.2</v>
+        <v>101.6</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E18" t="n">
-        <v>97.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F18" t="n">
-        <v>95.09999999999999</v>
+        <v>102.4</v>
       </c>
       <c r="G18" t="n">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
       <c r="H18" t="n">
-        <v>96.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>87</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.12333735</v>
+        <v>100.3</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>100.4545487</v>
+        <v>100.4</v>
       </c>
       <c r="E19" t="n">
-        <v>100.25737664</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>99.50814097</v>
+        <v>99.3</v>
       </c>
       <c r="G19" t="n">
-        <v>99.90993810000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>104.13597207</v>
+        <v>94.3</v>
       </c>
       <c r="I19" t="n">
-        <v>90.82240367</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>102.5</v>
-      </c>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>99</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="G20" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>96.59999999999999</v>
-      </c>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>84.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E21" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>102.4</v>
+        <v>104.6</v>
       </c>
       <c r="G21" t="n">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="H21" t="n">
-        <v>92.09999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="I21" t="n">
-        <v>94.09999999999999</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.3</v>
+        <v>97.2</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>98.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F22" t="n">
-        <v>99.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>94.3</v>
+        <v>100.9</v>
       </c>
       <c r="I22" t="n">
-        <v>104.3</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>98</v>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>97.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>103.7</v>
+        <v>95.8</v>
       </c>
       <c r="G23" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="H23" t="n">
+        <v>103.4</v>
+      </c>
       <c r="I23" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.59999999999999</v>
+        <v>100.49282984</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>100.3</v>
+        <v>99.84128973</v>
       </c>
       <c r="E24" t="n">
-        <v>98.90000000000001</v>
+        <v>101.59065204</v>
       </c>
       <c r="F24" t="n">
-        <v>104.6</v>
+        <v>98.2879899</v>
       </c>
       <c r="G24" t="n">
-        <v>99.7</v>
+        <v>100.77093839</v>
       </c>
       <c r="H24" t="n">
-        <v>101.2</v>
+        <v>102.28902019</v>
       </c>
       <c r="I24" t="n">
-        <v>101.1</v>
+        <v>105.88566939</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.75836867</v>
+        <v>105.33174319</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>100.47238078</v>
+        <v>100.19682729</v>
       </c>
       <c r="E25" t="n">
-        <v>99.78102920000001</v>
+        <v>102.57148434</v>
       </c>
       <c r="F25" t="n">
-        <v>97.03793714</v>
+        <v>100.70692726</v>
       </c>
       <c r="G25" t="n">
-        <v>99.20190266</v>
+        <v>103.34958102</v>
       </c>
       <c r="H25" t="n">
-        <v>96.60981765</v>
+        <v>103.8561655</v>
       </c>
       <c r="I25" t="n">
-        <v>94.88795043</v>
+        <v>122.37851309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.08716075</v>
+        <v>103.2</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>100.54961035</v>
+        <v>101</v>
       </c>
       <c r="E26" t="n">
-        <v>99.76924198</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>97.4339986</v>
+        <v>99.3</v>
       </c>
       <c r="G26" t="n">
-        <v>100.50045291</v>
+        <v>100.8</v>
       </c>
       <c r="H26" t="n">
-        <v>97.76357874</v>
+        <v>104</v>
       </c>
       <c r="I26" t="n">
-        <v>105.93248613</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.6049967</v>
+        <v>100.23944383</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>101.32311771</v>
+        <v>100.43600564</v>
       </c>
       <c r="E27" t="n">
-        <v>101.54463359</v>
+        <v>96.66729107</v>
       </c>
       <c r="F27" t="n">
-        <v>100.71627182</v>
+        <v>102.40428279</v>
       </c>
       <c r="G27" t="n">
-        <v>102.87310149</v>
+        <v>99.23907712</v>
       </c>
       <c r="H27" t="n">
-        <v>102.90233964</v>
+        <v>105.84576695</v>
       </c>
       <c r="I27" t="n">
-        <v>116.4492398</v>
+        <v>95.09199778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.33174319</v>
+        <v>99.9447053</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>100.19682729</v>
+        <v>100.75535106</v>
       </c>
       <c r="E28" t="n">
-        <v>102.57148434</v>
+        <v>96.8231179</v>
       </c>
       <c r="F28" t="n">
-        <v>100.70692726</v>
+        <v>101.77160183</v>
       </c>
       <c r="G28" t="n">
-        <v>103.34958102</v>
+        <v>99.41741605999999</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8561655</v>
+        <v>109.29039745</v>
       </c>
       <c r="I28" t="n">
-        <v>122.37851309</v>
+        <v>92.87178034</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.2</v>
+        <v>99.21334877</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>100.40579628</v>
       </c>
       <c r="E29" t="n">
-        <v>99.40000000000001</v>
+        <v>101.44778279</v>
       </c>
       <c r="F29" t="n">
-        <v>99.3</v>
+        <v>97.83009980999999</v>
       </c>
       <c r="G29" t="n">
-        <v>100.8</v>
+        <v>99.78159787</v>
       </c>
       <c r="H29" t="n">
-        <v>104</v>
+        <v>97.69493769</v>
       </c>
       <c r="I29" t="n">
-        <v>104</v>
+        <v>97.7457694</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.23944383</v>
+        <v>98.58033163</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>100.43600564</v>
+        <v>100.40517751</v>
       </c>
       <c r="E30" t="n">
-        <v>96.66729107</v>
+        <v>103.5100632</v>
       </c>
       <c r="F30" t="n">
-        <v>102.40428279</v>
+        <v>105.41237809</v>
       </c>
       <c r="G30" t="n">
-        <v>99.23907712</v>
+        <v>101.32095032</v>
       </c>
       <c r="H30" t="n">
-        <v>105.84576695</v>
+        <v>94.44025532000001</v>
       </c>
       <c r="I30" t="n">
-        <v>95.09199778</v>
+        <v>110.41559123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.9447053</v>
+        <v>97.86832584</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>100.75535106</v>
+        <v>100.61497278</v>
       </c>
       <c r="E31" t="n">
-        <v>96.8231179</v>
+        <v>101.90841006</v>
       </c>
       <c r="F31" t="n">
-        <v>101.77160183</v>
+        <v>103.94632486</v>
       </c>
       <c r="G31" t="n">
-        <v>99.41741605999999</v>
+        <v>100.68401604</v>
       </c>
       <c r="H31" t="n">
-        <v>109.29039745</v>
+        <v>97.14877404000001</v>
       </c>
       <c r="I31" t="n">
-        <v>92.87178034</v>
+        <v>104.37975384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.21334877</v>
+        <v>99.75836867</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>100.40579628</v>
+        <v>100.47238078</v>
       </c>
       <c r="E32" t="n">
-        <v>101.44778279</v>
+        <v>99.78102920000001</v>
       </c>
       <c r="F32" t="n">
-        <v>97.83009980999999</v>
+        <v>97.03793714</v>
       </c>
       <c r="G32" t="n">
-        <v>99.78159787</v>
+        <v>99.20190266</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69493769</v>
+        <v>96.60981765</v>
       </c>
       <c r="I32" t="n">
-        <v>97.7457694</v>
+        <v>94.88795043</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.58033163</v>
+        <v>100.08716075</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>100.40517751</v>
+        <v>100.54961035</v>
       </c>
       <c r="E33" t="n">
-        <v>103.5100632</v>
+        <v>99.76924198</v>
       </c>
       <c r="F33" t="n">
-        <v>105.41237809</v>
+        <v>97.4339986</v>
       </c>
       <c r="G33" t="n">
-        <v>101.32095032</v>
+        <v>100.50045291</v>
       </c>
       <c r="H33" t="n">
-        <v>94.44025532000001</v>
+        <v>97.76357874</v>
       </c>
       <c r="I33" t="n">
-        <v>110.41559123</v>
+        <v>105.93248613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.86832584</v>
+        <v>102.6049967</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>100.61497278</v>
+        <v>101.32311771</v>
       </c>
       <c r="E34" t="n">
-        <v>101.90841006</v>
+        <v>101.54463359</v>
       </c>
       <c r="F34" t="n">
-        <v>103.94632486</v>
+        <v>100.71627182</v>
       </c>
       <c r="G34" t="n">
-        <v>100.68401604</v>
+        <v>102.87310149</v>
       </c>
       <c r="H34" t="n">
-        <v>97.14877404000001</v>
+        <v>102.90233964</v>
       </c>
       <c r="I34" t="n">
-        <v>104.37975384</v>
+        <v>116.4492398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.98334803</v>
+        <v>103.46237863</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>100.71770112</v>
+        <v>101.26031695</v>
       </c>
       <c r="E35" t="n">
-        <v>101.081751</v>
+        <v>100.69157554</v>
       </c>
       <c r="F35" t="n">
-        <v>97.55633757</v>
+        <v>101.43412393</v>
       </c>
       <c r="G35" t="n">
-        <v>101.0502515</v>
+        <v>101.78707476</v>
       </c>
       <c r="H35" t="n">
-        <v>100.47019829</v>
+        <v>106.80253677</v>
       </c>
       <c r="I35" t="n">
-        <v>105.29869741</v>
+        <v>105.22470452</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.72084618</v>
+        <v>108.13014022</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>102.69107298</v>
+        <v>100.85191789</v>
       </c>
       <c r="E36" t="n">
-        <v>102.67130033</v>
+        <v>101.3597745</v>
       </c>
       <c r="F36" t="n">
-        <v>103.74435284</v>
+        <v>101.56027826</v>
       </c>
       <c r="G36" t="n">
-        <v>101.99144355</v>
+        <v>103.2557848</v>
       </c>
       <c r="H36" t="n">
-        <v>106.37251729</v>
+        <v>112.76847317</v>
       </c>
       <c r="I36" t="n">
-        <v>98.08437176</v>
+        <v>111.40319182</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.72025146</v>
+        <v>96.80709182</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>102.05908422</v>
+        <v>101.20951791</v>
       </c>
       <c r="E37" t="n">
-        <v>101.84276535</v>
+        <v>95.67264287</v>
       </c>
       <c r="F37" t="n">
-        <v>101.85399935</v>
+        <v>96.87465716</v>
       </c>
       <c r="G37" t="n">
-        <v>100.8997213</v>
+        <v>98.48091644</v>
       </c>
       <c r="H37" t="n">
-        <v>108.02277072</v>
+        <v>100.68911722</v>
       </c>
       <c r="I37" t="n">
-        <v>90.55059866000001</v>
+        <v>95.93941103</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.46237863</v>
+        <v>99.48309458999999</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>101.26031695</v>
+        <v>101.75972255</v>
       </c>
       <c r="E38" t="n">
-        <v>100.69157554</v>
+        <v>97.06769489</v>
       </c>
       <c r="F38" t="n">
-        <v>101.43412393</v>
+        <v>98.55981747</v>
       </c>
       <c r="G38" t="n">
-        <v>101.78707476</v>
+        <v>99.90522863</v>
       </c>
       <c r="H38" t="n">
-        <v>106.80253677</v>
+        <v>103.70714584</v>
       </c>
       <c r="I38" t="n">
-        <v>105.22470452</v>
+        <v>100.2722562</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>108.13014022</v>
+        <v>99.97623176</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>100.85191789</v>
+        <v>101.53475459</v>
       </c>
       <c r="E39" t="n">
-        <v>101.3597745</v>
+        <v>99.40735591000001</v>
       </c>
       <c r="F39" t="n">
-        <v>101.56027826</v>
+        <v>100.19917225</v>
       </c>
       <c r="G39" t="n">
-        <v>103.2557848</v>
+        <v>99.53010347999999</v>
       </c>
       <c r="H39" t="n">
-        <v>112.76847317</v>
+        <v>104.97897227</v>
       </c>
       <c r="I39" t="n">
-        <v>111.40319182</v>
+        <v>90.22072824999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.80709182</v>
+        <v>100.79219299</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>101.20951791</v>
+        <v>100.76869466</v>
       </c>
       <c r="E40" t="n">
-        <v>95.67264287</v>
+        <v>99.88420277</v>
       </c>
       <c r="F40" t="n">
-        <v>96.87465716</v>
+        <v>101.60728537</v>
       </c>
       <c r="G40" t="n">
-        <v>98.48091644</v>
+        <v>98.3757518</v>
       </c>
       <c r="H40" t="n">
-        <v>100.68911722</v>
+        <v>94.93879816</v>
       </c>
       <c r="I40" t="n">
-        <v>95.93941103</v>
+        <v>85.38360853</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.48309458999999</v>
+        <v>100.27491949</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>101.75972255</v>
+        <v>100.42429502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.06769489</v>
+        <v>103.72714635</v>
       </c>
       <c r="F41" t="n">
-        <v>98.55981747</v>
+        <v>102.89434201</v>
       </c>
       <c r="G41" t="n">
-        <v>99.90522863</v>
+        <v>100.88819356</v>
       </c>
       <c r="H41" t="n">
-        <v>103.70714584</v>
+        <v>93.49523902999999</v>
       </c>
       <c r="I41" t="n">
-        <v>100.2722562</v>
+        <v>104.34599005</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.97623176</v>
+        <v>99.55790173</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>101.53475459</v>
+        <v>100.58017664</v>
       </c>
       <c r="E42" t="n">
-        <v>99.40735591000001</v>
+        <v>104.83494927</v>
       </c>
       <c r="F42" t="n">
-        <v>100.19917225</v>
+        <v>107.49634834</v>
       </c>
       <c r="G42" t="n">
-        <v>99.53010347999999</v>
+        <v>101.95801665</v>
       </c>
       <c r="H42" t="n">
-        <v>104.97897227</v>
+        <v>97.69466979000001</v>
       </c>
       <c r="I42" t="n">
-        <v>90.22072824999999</v>
+        <v>107.66965227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.79219299</v>
+        <v>100.01189651</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>100.76869466</v>
+        <v>100.71822437</v>
       </c>
       <c r="E43" t="n">
-        <v>99.88420277</v>
+        <v>101.90764086</v>
       </c>
       <c r="F43" t="n">
-        <v>101.60728537</v>
+        <v>104.19856776</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3757518</v>
+        <v>101.1991438</v>
       </c>
       <c r="H43" t="n">
-        <v>94.93879816</v>
+        <v>101.71159008</v>
       </c>
       <c r="I43" t="n">
-        <v>85.38360853</v>
+        <v>103.29555861</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.27491949</v>
+        <v>99.98334803</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>100.42429502</v>
+        <v>100.71770112</v>
       </c>
       <c r="E44" t="n">
-        <v>103.72714635</v>
+        <v>101.081751</v>
       </c>
       <c r="F44" t="n">
-        <v>102.89434201</v>
+        <v>97.55633757</v>
       </c>
       <c r="G44" t="n">
-        <v>100.88819356</v>
+        <v>101.0502515</v>
       </c>
       <c r="H44" t="n">
-        <v>93.49523902999999</v>
+        <v>100.47019829</v>
       </c>
       <c r="I44" t="n">
-        <v>104.34599005</v>
+        <v>105.29869741</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.55790173</v>
+        <v>100.72084618</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>100.58017664</v>
+        <v>102.69107298</v>
       </c>
       <c r="E45" t="n">
-        <v>104.83494927</v>
+        <v>102.67130033</v>
       </c>
       <c r="F45" t="n">
-        <v>107.49634834</v>
+        <v>103.74435284</v>
       </c>
       <c r="G45" t="n">
-        <v>101.95801665</v>
+        <v>101.99144355</v>
       </c>
       <c r="H45" t="n">
-        <v>97.69466979000001</v>
+        <v>106.37251729</v>
       </c>
       <c r="I45" t="n">
-        <v>107.66965227</v>
+        <v>98.08437176</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.01189651</v>
+        <v>101.72025146</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.71822437</v>
+        <v>102.05908422</v>
       </c>
       <c r="E46" t="n">
-        <v>101.90764086</v>
+        <v>101.84276535</v>
       </c>
       <c r="F46" t="n">
-        <v>104.19856776</v>
+        <v>101.85399935</v>
       </c>
       <c r="G46" t="n">
-        <v>101.1991438</v>
+        <v>100.8997213</v>
       </c>
       <c r="H46" t="n">
-        <v>101.71159008</v>
+        <v>108.02277072</v>
       </c>
       <c r="I46" t="n">
-        <v>103.29555861</v>
+        <v>90.55059866000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.47473569</v>
+        <v>103.85379144</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.41317071</v>
+        <v>101.11489787</v>
       </c>
       <c r="E47" t="n">
-        <v>99.41556833</v>
+        <v>101.30443696</v>
       </c>
       <c r="F47" t="n">
-        <v>96.23202639</v>
+        <v>102.28434092</v>
       </c>
       <c r="G47" t="n">
-        <v>99.82453254000001</v>
+        <v>102.77944001</v>
       </c>
       <c r="H47" t="n">
-        <v>105.69058516</v>
+        <v>107.48110389</v>
       </c>
       <c r="I47" t="n">
-        <v>96.59419232</v>
+        <v>114.39309397</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.25520448</v>
+        <v>106.18295881</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.17657467</v>
+        <v>100.874323</v>
       </c>
       <c r="E48" t="n">
-        <v>97.35401967999999</v>
+        <v>103.71096043</v>
       </c>
       <c r="F48" t="n">
-        <v>96.04829092999999</v>
+        <v>100.8257017</v>
       </c>
       <c r="G48" t="n">
-        <v>99.2080763</v>
+        <v>103.7088779</v>
       </c>
       <c r="H48" t="n">
-        <v>106.78466052</v>
+        <v>108.73748559</v>
       </c>
       <c r="I48" t="n">
-        <v>94.00228941</v>
+        <v>115.22462636</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.87783585</v>
+        <v>97.7</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.13217707</v>
+        <v>101.2</v>
       </c>
       <c r="E49" t="n">
-        <v>99.17176913</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>98.28969463999999</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
-        <v>101.16995652</v>
+        <v>99</v>
       </c>
       <c r="H49" t="n">
-        <v>102.69392237</v>
+        <v>99.3</v>
       </c>
       <c r="I49" t="n">
-        <v>113.90194011</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>103.85379144</v>
+        <v>100.7</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>101.11489787</v>
+        <v>100.6</v>
       </c>
       <c r="E50" t="n">
-        <v>101.30443696</v>
+        <v>100.5</v>
       </c>
       <c r="F50" t="n">
-        <v>102.28434092</v>
+        <v>98.7</v>
       </c>
       <c r="G50" t="n">
-        <v>102.77944001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>107.48110389</v>
+        <v>103.9</v>
       </c>
       <c r="I50" t="n">
-        <v>114.39309397</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>106.18295881</v>
+        <v>100.5</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>100.874323</v>
+        <v>100.5</v>
       </c>
       <c r="E51" t="n">
-        <v>103.71096043</v>
+        <v>101.6</v>
       </c>
       <c r="F51" t="n">
-        <v>100.8257017</v>
+        <v>104.6</v>
       </c>
       <c r="G51" t="n">
-        <v>103.7088779</v>
+        <v>99.7</v>
       </c>
       <c r="H51" t="n">
-        <v>108.73748559</v>
+        <v>97</v>
       </c>
       <c r="I51" t="n">
-        <v>115.22462636</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.7</v>
+        <v>102</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="E52" t="n">
-        <v>98.90000000000001</v>
+        <v>106.3</v>
       </c>
       <c r="F52" t="n">
-        <v>93</v>
+        <v>104.2</v>
       </c>
       <c r="G52" t="n">
-        <v>99</v>
+        <v>100.9</v>
       </c>
       <c r="H52" t="n">
-        <v>99.3</v>
+        <v>86.5</v>
       </c>
       <c r="I52" t="n">
-        <v>93.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.7</v>
+        <v>101.19654119</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>100.6</v>
+        <v>100.3799492</v>
       </c>
       <c r="E53" t="n">
-        <v>100.5</v>
+        <v>104.74518408</v>
       </c>
       <c r="F53" t="n">
-        <v>98.7</v>
+        <v>100.7965002</v>
       </c>
       <c r="G53" t="n">
-        <v>99.59999999999999</v>
+        <v>101.17450571</v>
       </c>
       <c r="H53" t="n">
-        <v>103.9</v>
+        <v>89.82541087</v>
       </c>
       <c r="I53" t="n">
-        <v>88.8</v>
+        <v>104.05986284</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100.5</v>
+        <v>99.31476345999999</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>100.5</v>
+        <v>100.45631572</v>
       </c>
       <c r="E54" t="n">
-        <v>101.6</v>
+        <v>101.49173111</v>
       </c>
       <c r="F54" t="n">
-        <v>104.6</v>
+        <v>104.4248396</v>
       </c>
       <c r="G54" t="n">
-        <v>99.7</v>
+        <v>100.58409459</v>
       </c>
       <c r="H54" t="n">
-        <v>97</v>
+        <v>95.85580876</v>
       </c>
       <c r="I54" t="n">
-        <v>90.7</v>
+        <v>99.80670593000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>102</v>
+        <v>99.44198160000001</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>100.3</v>
+        <v>100.46386338</v>
       </c>
       <c r="E55" t="n">
-        <v>106.3</v>
+        <v>101.24954522</v>
       </c>
       <c r="F55" t="n">
-        <v>104.2</v>
+        <v>102.43985123</v>
       </c>
       <c r="G55" t="n">
-        <v>100.9</v>
+        <v>101.13707541</v>
       </c>
       <c r="H55" t="n">
-        <v>86.5</v>
+        <v>103.09753927</v>
       </c>
       <c r="I55" t="n">
-        <v>99.2</v>
+        <v>105.19142332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>101.19654119</v>
+        <v>98.47473569</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>100.3799492</v>
+        <v>100.41317071</v>
       </c>
       <c r="E56" t="n">
-        <v>104.74518408</v>
+        <v>99.41556833</v>
       </c>
       <c r="F56" t="n">
-        <v>100.7965002</v>
+        <v>96.23202639</v>
       </c>
       <c r="G56" t="n">
-        <v>101.17450571</v>
+        <v>99.82453254000001</v>
       </c>
       <c r="H56" t="n">
-        <v>89.82541087</v>
+        <v>105.69058516</v>
       </c>
       <c r="I56" t="n">
-        <v>104.05986284</v>
+        <v>96.59419232</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.31476345999999</v>
+        <v>99.25520448</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>100.45631572</v>
+        <v>100.17657467</v>
       </c>
       <c r="E57" t="n">
-        <v>101.49173111</v>
+        <v>97.35401967999999</v>
       </c>
       <c r="F57" t="n">
-        <v>104.4248396</v>
+        <v>96.04829092999999</v>
       </c>
       <c r="G57" t="n">
-        <v>100.58409459</v>
+        <v>99.2080763</v>
       </c>
       <c r="H57" t="n">
-        <v>95.85580876</v>
+        <v>106.78466052</v>
       </c>
       <c r="I57" t="n">
-        <v>99.80670593000001</v>
+        <v>94.00228941</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.44198160000001</v>
+        <v>100.87783585</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>100.46386338</v>
+        <v>100.13217707</v>
       </c>
       <c r="E58" t="n">
-        <v>101.24954522</v>
+        <v>99.17176913</v>
       </c>
       <c r="F58" t="n">
-        <v>102.43985123</v>
+        <v>98.28969463999999</v>
       </c>
       <c r="G58" t="n">
-        <v>101.13707541</v>
+        <v>101.16995652</v>
       </c>
       <c r="H58" t="n">
-        <v>103.09753927</v>
+        <v>102.69392237</v>
       </c>
       <c r="I58" t="n">
-        <v>105.19142332</v>
+        <v>113.90194011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.64823380999999</v>
+        <v>107.15523121</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>100.47632384</v>
+        <v>100.32860904</v>
       </c>
       <c r="E59" t="n">
-        <v>100.78818792</v>
+        <v>103.21222421</v>
       </c>
       <c r="F59" t="n">
-        <v>96.09954516000001</v>
+        <v>99.23570119999999</v>
       </c>
       <c r="G59" t="n">
-        <v>99.1703675</v>
+        <v>104.16604217</v>
       </c>
       <c r="H59" t="n">
-        <v>102.38285176</v>
+        <v>105.56509665</v>
       </c>
       <c r="I59" t="n">
-        <v>87.91176494</v>
+        <v>126.13715828</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.49156571</v>
+        <v>100.79951221</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>100.21467115</v>
+        <v>100.19465931</v>
       </c>
       <c r="E60" t="n">
-        <v>100.35496559</v>
+        <v>98.64981177999999</v>
       </c>
       <c r="F60" t="n">
-        <v>99.56942931</v>
+        <v>91.91950097</v>
       </c>
       <c r="G60" t="n">
-        <v>100.35140171</v>
+        <v>99.66478537</v>
       </c>
       <c r="H60" t="n">
-        <v>98.87287463</v>
+        <v>99.79162949000001</v>
       </c>
       <c r="I60" t="n">
-        <v>103.46413594</v>
+        <v>99.70097398999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>102.04538843</v>
+        <v>101.29959467</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>100.3821197</v>
+        <v>100.19026646</v>
       </c>
       <c r="E61" t="n">
-        <v>102.37074491</v>
+        <v>97.52644110999999</v>
       </c>
       <c r="F61" t="n">
-        <v>103.09299119</v>
+        <v>98.01823636</v>
       </c>
       <c r="G61" t="n">
-        <v>102.43849723</v>
+        <v>100.21290241</v>
       </c>
       <c r="H61" t="n">
-        <v>100.77148184</v>
+        <v>99.18956642000001</v>
       </c>
       <c r="I61" t="n">
-        <v>117.49722526</v>
+        <v>106.1422776</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>107.15523121</v>
+        <v>100.79251377</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>100.32860904</v>
+        <v>100.15204977</v>
       </c>
       <c r="E62" t="n">
-        <v>103.21222421</v>
+        <v>97.71552318000001</v>
       </c>
       <c r="F62" t="n">
-        <v>99.23570119999999</v>
+        <v>98.57222775</v>
       </c>
       <c r="G62" t="n">
-        <v>104.16604217</v>
+        <v>99.07947722</v>
       </c>
       <c r="H62" t="n">
-        <v>105.56509665</v>
+        <v>100.08919954</v>
       </c>
       <c r="I62" t="n">
-        <v>126.13715828</v>
+        <v>94.18359182</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.79951221</v>
+        <v>100.40015419</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>100.19465931</v>
+        <v>100.16170054</v>
       </c>
       <c r="E63" t="n">
-        <v>98.64981177999999</v>
+        <v>98.63933262</v>
       </c>
       <c r="F63" t="n">
-        <v>91.91950097</v>
+        <v>100.29293952</v>
       </c>
       <c r="G63" t="n">
-        <v>99.66478537</v>
+        <v>99.22149521</v>
       </c>
       <c r="H63" t="n">
-        <v>99.79162949000001</v>
+        <v>99.76180218</v>
       </c>
       <c r="I63" t="n">
-        <v>99.70097398999999</v>
+        <v>93.07295043000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>101.29959467</v>
+        <v>99.5150975</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.19026646</v>
+        <v>100.11586042</v>
       </c>
       <c r="E64" t="n">
-        <v>97.52644110999999</v>
+        <v>99.39914727999999</v>
       </c>
       <c r="F64" t="n">
-        <v>98.01823636</v>
+        <v>111.38609927</v>
       </c>
       <c r="G64" t="n">
-        <v>100.21290241</v>
+        <v>98.38445036</v>
       </c>
       <c r="H64" t="n">
-        <v>99.18956642000001</v>
+        <v>93.69532099</v>
       </c>
       <c r="I64" t="n">
-        <v>106.1422776</v>
+        <v>84.80822118</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.79251377</v>
+        <v>99.40763951</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>100.15204977</v>
+        <v>100.17636307</v>
       </c>
       <c r="E65" t="n">
-        <v>97.71552318000001</v>
+        <v>100.01577654</v>
       </c>
       <c r="F65" t="n">
-        <v>98.57222775</v>
+        <v>97.69065053</v>
       </c>
       <c r="G65" t="n">
-        <v>99.07947722</v>
+        <v>99.87580469</v>
       </c>
       <c r="H65" t="n">
-        <v>100.08919954</v>
+        <v>97.08401464000001</v>
       </c>
       <c r="I65" t="n">
-        <v>94.18359182</v>
+        <v>100.24872909</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.40015419</v>
+        <v>98.33446563</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>100.16170054</v>
+        <v>100.6111046</v>
       </c>
       <c r="E66" t="n">
-        <v>98.63933262</v>
+        <v>101.04947643</v>
       </c>
       <c r="F66" t="n">
-        <v>100.29293952</v>
+        <v>108.16585843</v>
       </c>
       <c r="G66" t="n">
-        <v>99.22149521</v>
+        <v>101.51158475</v>
       </c>
       <c r="H66" t="n">
-        <v>99.76180218</v>
+        <v>96.74850385000001</v>
       </c>
       <c r="I66" t="n">
-        <v>93.07295043000001</v>
+        <v>114.34757076</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.5150975</v>
+        <v>98.37169417</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>100.11586042</v>
+        <v>101.01168293</v>
       </c>
       <c r="E67" t="n">
-        <v>99.39914727999999</v>
+        <v>101.86370066</v>
       </c>
       <c r="F67" t="n">
-        <v>111.38609927</v>
+        <v>105.90035739</v>
       </c>
       <c r="G67" t="n">
-        <v>98.38445036</v>
+        <v>100.23410053</v>
       </c>
       <c r="H67" t="n">
-        <v>93.69532099</v>
+        <v>100.7445622</v>
       </c>
       <c r="I67" t="n">
-        <v>84.80822118</v>
+        <v>94.42726199000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.40763951</v>
+        <v>98.64823380999999</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>100.17636307</v>
+        <v>100.47632384</v>
       </c>
       <c r="E68" t="n">
-        <v>100.01577654</v>
+        <v>100.78818792</v>
       </c>
       <c r="F68" t="n">
-        <v>97.69065053</v>
+        <v>96.09954516000001</v>
       </c>
       <c r="G68" t="n">
-        <v>99.87580469</v>
+        <v>99.1703675</v>
       </c>
       <c r="H68" t="n">
-        <v>97.08401464000001</v>
+        <v>102.38285176</v>
       </c>
       <c r="I68" t="n">
-        <v>100.24872909</v>
+        <v>87.91176494</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>98.33446563</v>
+        <v>99.49156571</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>100.6111046</v>
+        <v>100.21467115</v>
       </c>
       <c r="E69" t="n">
-        <v>101.04947643</v>
+        <v>100.35496559</v>
       </c>
       <c r="F69" t="n">
-        <v>108.16585843</v>
+        <v>99.56942931</v>
       </c>
       <c r="G69" t="n">
-        <v>101.51158475</v>
+        <v>100.35140171</v>
       </c>
       <c r="H69" t="n">
-        <v>96.74850385000001</v>
+        <v>98.87287463</v>
       </c>
       <c r="I69" t="n">
-        <v>114.34757076</v>
+        <v>103.46413594</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98.37169417</v>
+        <v>102.04538843</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>101.01168293</v>
+        <v>100.3821197</v>
       </c>
       <c r="E70" t="n">
-        <v>101.86370066</v>
+        <v>102.37074491</v>
       </c>
       <c r="F70" t="n">
-        <v>105.90035739</v>
+        <v>103.09299119</v>
       </c>
       <c r="G70" t="n">
-        <v>100.23410053</v>
+        <v>102.43849723</v>
       </c>
       <c r="H70" t="n">
-        <v>100.7445622</v>
+        <v>100.77148184</v>
       </c>
       <c r="I70" t="n">
-        <v>94.42726199000001</v>
+        <v>117.49722526</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.06580911</v>
+        <v>103.5154844</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>100.30900801</v>
+        <v>100.88405091</v>
       </c>
       <c r="E71" t="n">
-        <v>100.03189403</v>
+        <v>103.24343775</v>
       </c>
       <c r="F71" t="n">
-        <v>94.11975964</v>
+        <v>101.36162437</v>
       </c>
       <c r="G71" t="n">
-        <v>99.59084141</v>
+        <v>102.80309558</v>
       </c>
       <c r="H71" t="n">
-        <v>99.05257829</v>
+        <v>104.32402814</v>
       </c>
       <c r="I71" t="n">
-        <v>97.22314745</v>
+        <v>112.6943663</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.60380809</v>
+        <v>105.93784643</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>100.36080005</v>
+        <v>100.60073865</v>
       </c>
       <c r="E72" t="n">
-        <v>100.04481152</v>
+        <v>102.37586797</v>
       </c>
       <c r="F72" t="n">
-        <v>98.64614947</v>
+        <v>99.09043022</v>
       </c>
       <c r="G72" t="n">
-        <v>99.77947999</v>
+        <v>102.67094883</v>
       </c>
       <c r="H72" t="n">
-        <v>100.51524519</v>
+        <v>110.99937092</v>
       </c>
       <c r="I72" t="n">
-        <v>96.22632633000001</v>
+        <v>106.94824937</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>101.10405759</v>
+        <v>95.48098406</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>100.25627106</v>
+        <v>100.28052631</v>
       </c>
       <c r="E73" t="n">
-        <v>100.48586137</v>
+        <v>95.33336143</v>
       </c>
       <c r="F73" t="n">
-        <v>100.57274067</v>
+        <v>93.28925934</v>
       </c>
       <c r="G73" t="n">
-        <v>100.61274576</v>
+        <v>97.08356606</v>
       </c>
       <c r="H73" t="n">
-        <v>105.2757586</v>
+        <v>100.45299214</v>
       </c>
       <c r="I73" t="n">
-        <v>98.49574143</v>
+        <v>86.55474176</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>103.5154844</v>
+        <v>101.20728938</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>100.88405091</v>
+        <v>100.15432853</v>
       </c>
       <c r="E74" t="n">
-        <v>103.24343775</v>
+        <v>96.37812651</v>
       </c>
       <c r="F74" t="n">
-        <v>101.36162437</v>
+        <v>97.15325980999999</v>
       </c>
       <c r="G74" t="n">
-        <v>102.80309558</v>
+        <v>100.40137716</v>
       </c>
       <c r="H74" t="n">
-        <v>104.32402814</v>
+        <v>100.32401281</v>
       </c>
       <c r="I74" t="n">
-        <v>112.6943663</v>
+        <v>111.19401853</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>105.93784643</v>
+        <v>100.6551538</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>100.60073865</v>
+        <v>100.11732075</v>
       </c>
       <c r="E75" t="n">
-        <v>102.37586797</v>
+        <v>98.75276922</v>
       </c>
       <c r="F75" t="n">
-        <v>99.09043022</v>
+        <v>99.61763126</v>
       </c>
       <c r="G75" t="n">
-        <v>102.67094883</v>
+        <v>98.43725053</v>
       </c>
       <c r="H75" t="n">
-        <v>110.99937092</v>
+        <v>100.91023545</v>
       </c>
       <c r="I75" t="n">
-        <v>106.94824937</v>
+        <v>86.23449567</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>95.48098406</v>
+        <v>100.32347818</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>100.28052631</v>
+        <v>100.11352915</v>
       </c>
       <c r="E76" t="n">
-        <v>95.33336143</v>
+        <v>102.48535359</v>
       </c>
       <c r="F76" t="n">
-        <v>93.28925934</v>
+        <v>100.23335462</v>
       </c>
       <c r="G76" t="n">
-        <v>97.08356606</v>
+        <v>100.00577213</v>
       </c>
       <c r="H76" t="n">
-        <v>100.45299214</v>
+        <v>97.99139052</v>
       </c>
       <c r="I76" t="n">
-        <v>86.55474176</v>
+        <v>94.79469769000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>101.20728938</v>
+        <v>99.41756004</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>100.15432853</v>
+        <v>100.16263095</v>
       </c>
       <c r="E77" t="n">
-        <v>96.37812651</v>
+        <v>101.07083176</v>
       </c>
       <c r="F77" t="n">
-        <v>97.15325980999999</v>
+        <v>98.61915088000001</v>
       </c>
       <c r="G77" t="n">
-        <v>100.40137716</v>
+        <v>99.96119027</v>
       </c>
       <c r="H77" t="n">
-        <v>100.32401281</v>
+        <v>93.48929398</v>
       </c>
       <c r="I77" t="n">
-        <v>111.19401853</v>
+        <v>102.18161718</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.6551538</v>
+        <v>99.51960459</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>100.11732075</v>
+        <v>100.23213368</v>
       </c>
       <c r="E78" t="n">
-        <v>98.75276922</v>
+        <v>102.28299252</v>
       </c>
       <c r="F78" t="n">
-        <v>99.61763126</v>
+        <v>107.06070722</v>
       </c>
       <c r="G78" t="n">
-        <v>98.43725053</v>
+        <v>101.23379199</v>
       </c>
       <c r="H78" t="n">
-        <v>100.91023545</v>
+        <v>96.98554346</v>
       </c>
       <c r="I78" t="n">
-        <v>86.23449567</v>
+        <v>107.60758468</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.32347818</v>
+        <v>99.88166943</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.11352915</v>
+        <v>100.29932433</v>
       </c>
       <c r="E79" t="n">
-        <v>102.48535359</v>
+        <v>101.35188035</v>
       </c>
       <c r="F79" t="n">
-        <v>100.23335462</v>
+        <v>107.05591892</v>
       </c>
       <c r="G79" t="n">
-        <v>100.00577213</v>
+        <v>101.54561922</v>
       </c>
       <c r="H79" t="n">
-        <v>97.99139052</v>
+        <v>105.38663663</v>
       </c>
       <c r="I79" t="n">
-        <v>94.79469769000001</v>
+        <v>106.74371441</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.41756004</v>
+        <v>99.06580911</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>100.16263095</v>
+        <v>100.30900801</v>
       </c>
       <c r="E80" t="n">
-        <v>101.07083176</v>
+        <v>100.03189403</v>
       </c>
       <c r="F80" t="n">
-        <v>98.61915088000001</v>
+        <v>94.11975964</v>
       </c>
       <c r="G80" t="n">
-        <v>99.96119027</v>
+        <v>99.59084141</v>
       </c>
       <c r="H80" t="n">
-        <v>93.48929398</v>
+        <v>99.05257829</v>
       </c>
       <c r="I80" t="n">
-        <v>102.18161718</v>
+        <v>97.22314745</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.51960459</v>
+        <v>99.60380809</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>100.23213368</v>
+        <v>100.36080005</v>
       </c>
       <c r="E81" t="n">
-        <v>102.28299252</v>
+        <v>100.04481152</v>
       </c>
       <c r="F81" t="n">
-        <v>107.06070722</v>
+        <v>98.64614947</v>
       </c>
       <c r="G81" t="n">
-        <v>101.23379199</v>
+        <v>99.77947999</v>
       </c>
       <c r="H81" t="n">
-        <v>96.98554346</v>
+        <v>100.51524519</v>
       </c>
       <c r="I81" t="n">
-        <v>107.60758468</v>
+        <v>96.22632633000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.88166943</v>
+        <v>101.10405759</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>100.29932433</v>
+        <v>100.25627106</v>
       </c>
       <c r="E82" t="n">
-        <v>101.35188035</v>
+        <v>100.48586137</v>
       </c>
       <c r="F82" t="n">
-        <v>107.05591892</v>
+        <v>100.57274067</v>
       </c>
       <c r="G82" t="n">
-        <v>101.54561922</v>
+        <v>100.61274576</v>
       </c>
       <c r="H82" t="n">
-        <v>105.38663663</v>
+        <v>105.2757586</v>
       </c>
       <c r="I82" t="n">
-        <v>106.74371441</v>
+        <v>98.49574143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.01743786999999</v>
+        <v>104.31464704</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>100.32621701</v>
+        <v>100.21090122</v>
       </c>
       <c r="E83" t="n">
-        <v>99.99118747</v>
+        <v>100.01225364</v>
       </c>
       <c r="F83" t="n">
-        <v>97.00947908000001</v>
+        <v>101.66920436</v>
       </c>
       <c r="G83" t="n">
-        <v>99.75898447</v>
+        <v>102.42630128</v>
       </c>
       <c r="H83" t="n">
-        <v>97.77933858999999</v>
+        <v>111.02548168</v>
       </c>
       <c r="I83" t="n">
-        <v>99.51837523</v>
+        <v>112.14299916</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.0326644</v>
+        <v>104.36170527</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>100.11818632</v>
+        <v>100.22842825</v>
       </c>
       <c r="E84" t="n">
-        <v>99.41480011</v>
+        <v>98.98064386</v>
       </c>
       <c r="F84" t="n">
-        <v>98.68793015</v>
+        <v>96.9717443</v>
       </c>
       <c r="G84" t="n">
-        <v>99.59748328000001</v>
+        <v>101.65976115</v>
       </c>
       <c r="H84" t="n">
-        <v>99.4637207</v>
+        <v>108.04709103</v>
       </c>
       <c r="I84" t="n">
-        <v>98.35896011</v>
+        <v>108.21239288</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.98468355</v>
+        <v>98.14973589</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>100.08158842</v>
+        <v>100.24211455</v>
       </c>
       <c r="E85" t="n">
-        <v>99.75194264</v>
+        <v>96.47588007</v>
       </c>
       <c r="F85" t="n">
-        <v>98.4460799</v>
+        <v>99.45565523</v>
       </c>
       <c r="G85" t="n">
-        <v>101.15145484</v>
+        <v>98.42809155</v>
       </c>
       <c r="H85" t="n">
-        <v>101.90954217</v>
+        <v>98.39637034</v>
       </c>
       <c r="I85" t="n">
-        <v>111.33597272</v>
+        <v>94.62279995</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>104.31464704</v>
+        <v>99.40890639</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>100.21090122</v>
+        <v>100.20654057</v>
       </c>
       <c r="E86" t="n">
-        <v>100.01225364</v>
+        <v>97.49479717</v>
       </c>
       <c r="F86" t="n">
-        <v>101.66920436</v>
+        <v>103.54634771</v>
       </c>
       <c r="G86" t="n">
-        <v>102.42630128</v>
+        <v>98.67813218000001</v>
       </c>
       <c r="H86" t="n">
-        <v>111.02548168</v>
+        <v>101.45334397</v>
       </c>
       <c r="I86" t="n">
-        <v>112.14299916</v>
+        <v>90.69262943</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>104.36170527</v>
+        <v>99.93176112</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>100.22842825</v>
+        <v>100.3349565</v>
       </c>
       <c r="E87" t="n">
-        <v>98.98064386</v>
+        <v>102.66682584</v>
       </c>
       <c r="F87" t="n">
-        <v>96.9717443</v>
+        <v>109.51080605</v>
       </c>
       <c r="G87" t="n">
-        <v>101.65976115</v>
+        <v>100.18480084</v>
       </c>
       <c r="H87" t="n">
-        <v>108.04709103</v>
+        <v>102.11763715</v>
       </c>
       <c r="I87" t="n">
-        <v>108.21239288</v>
+        <v>91.34411849999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>98.14973589</v>
+        <v>99.42493234</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>100.24211455</v>
+        <v>100.35048903</v>
       </c>
       <c r="E88" t="n">
-        <v>96.47588007</v>
+        <v>101.17023372</v>
       </c>
       <c r="F88" t="n">
-        <v>99.45565523</v>
+        <v>96.38019195</v>
       </c>
       <c r="G88" t="n">
-        <v>98.42809155</v>
+        <v>99.60329541</v>
       </c>
       <c r="H88" t="n">
-        <v>98.39637034</v>
+        <v>97.8211654</v>
       </c>
       <c r="I88" t="n">
-        <v>94.62279995</v>
+        <v>95.47785415</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.40890639</v>
+        <v>99.31367796000001</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>100.20654057</v>
+        <v>100.26752601</v>
       </c>
       <c r="E89" t="n">
-        <v>97.49479717</v>
+        <v>100.25765047</v>
       </c>
       <c r="F89" t="n">
-        <v>103.54634771</v>
+        <v>104.2100171</v>
       </c>
       <c r="G89" t="n">
-        <v>98.67813218000001</v>
+        <v>99.87920090999999</v>
       </c>
       <c r="H89" t="n">
-        <v>101.45334397</v>
+        <v>93.74383827</v>
       </c>
       <c r="I89" t="n">
-        <v>90.69262943</v>
+        <v>102.32025418</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.93176112</v>
+        <v>99.42854028000001</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>100.3349565</v>
+        <v>100.27396482</v>
       </c>
       <c r="E90" t="n">
-        <v>102.66682584</v>
+        <v>102.29434579</v>
       </c>
       <c r="F90" t="n">
-        <v>109.51080605</v>
+        <v>106.32389016</v>
       </c>
       <c r="G90" t="n">
-        <v>100.18480084</v>
+        <v>100.69408357</v>
       </c>
       <c r="H90" t="n">
-        <v>102.11763715</v>
+        <v>97.85351912</v>
       </c>
       <c r="I90" t="n">
-        <v>91.34411849999999</v>
+        <v>101.82751087</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.42493234</v>
+        <v>99.27118416</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>100.35048903</v>
+        <v>100.35084595</v>
       </c>
       <c r="E91" t="n">
-        <v>101.17023372</v>
+        <v>101.4304403</v>
       </c>
       <c r="F91" t="n">
-        <v>96.38019195</v>
+        <v>101.86326494</v>
       </c>
       <c r="G91" t="n">
-        <v>99.60329541</v>
+        <v>100.83321013</v>
       </c>
       <c r="H91" t="n">
-        <v>97.8211654</v>
+        <v>101.48455906</v>
       </c>
       <c r="I91" t="n">
-        <v>95.47785415</v>
+        <v>103.91481801</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.31367796000001</v>
+        <v>99.01743786999999</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>100.26752601</v>
+        <v>100.32621701</v>
       </c>
       <c r="E92" t="n">
-        <v>100.25765047</v>
+        <v>99.99118747</v>
       </c>
       <c r="F92" t="n">
-        <v>104.2100171</v>
+        <v>97.00947908000001</v>
       </c>
       <c r="G92" t="n">
-        <v>99.87920090999999</v>
+        <v>99.75898447</v>
       </c>
       <c r="H92" t="n">
-        <v>93.74383827</v>
+        <v>97.77933858999999</v>
       </c>
       <c r="I92" t="n">
-        <v>102.32025418</v>
+        <v>99.51837523</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.42854028000001</v>
+        <v>99.0326644</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>100.27396482</v>
+        <v>100.11818632</v>
       </c>
       <c r="E93" t="n">
-        <v>102.29434579</v>
+        <v>99.41480011</v>
       </c>
       <c r="F93" t="n">
-        <v>106.32389016</v>
+        <v>98.68793015</v>
       </c>
       <c r="G93" t="n">
-        <v>100.69408357</v>
+        <v>99.59748328000001</v>
       </c>
       <c r="H93" t="n">
-        <v>97.85351912</v>
+        <v>99.4637207</v>
       </c>
       <c r="I93" t="n">
-        <v>101.82751087</v>
+        <v>98.35896011</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>99.27118416</v>
+        <v>100.98468355</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>100.35084595</v>
+        <v>100.08158842</v>
       </c>
       <c r="E94" t="n">
-        <v>101.4304403</v>
+        <v>99.75194264</v>
       </c>
       <c r="F94" t="n">
-        <v>101.86326494</v>
+        <v>98.4460799</v>
       </c>
       <c r="G94" t="n">
-        <v>100.83321013</v>
+        <v>101.15145484</v>
       </c>
       <c r="H94" t="n">
-        <v>101.48455906</v>
+        <v>101.90954217</v>
       </c>
       <c r="I94" t="n">
-        <v>103.91481801</v>
+        <v>111.33597272</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>99.22374167</v>
+        <v>102.1887569</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>100.12629023</v>
+        <v>100.08352617</v>
       </c>
       <c r="E95" t="n">
-        <v>99.07643502000001</v>
+        <v>99.42412552</v>
       </c>
       <c r="F95" t="n">
-        <v>93.12107996</v>
+        <v>96.62890179999999</v>
       </c>
       <c r="G95" t="n">
-        <v>98.99944094</v>
+        <v>100.68647034</v>
       </c>
       <c r="H95" t="n">
-        <v>99.50789476999999</v>
+        <v>103.88475428</v>
       </c>
       <c r="I95" t="n">
-        <v>94.37302291</v>
+        <v>103.97278901</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>99.21360817</v>
+        <v>106.13774536</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>100.03641458</v>
+        <v>100.17900611</v>
       </c>
       <c r="E96" t="n">
-        <v>98.55201778</v>
+        <v>101.18383383</v>
       </c>
       <c r="F96" t="n">
-        <v>98.93773883999999</v>
+        <v>99.6800961</v>
       </c>
       <c r="G96" t="n">
-        <v>99.96942772</v>
+        <v>102.92306298</v>
       </c>
       <c r="H96" t="n">
-        <v>101.56070831</v>
+        <v>108.89662293</v>
       </c>
       <c r="I96" t="n">
-        <v>102.81077978</v>
+        <v>113.61332371</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>101.25517776</v>
+        <v>97.74822781</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>100.10145084</v>
+        <v>100.11621242</v>
       </c>
       <c r="E97" t="n">
-        <v>99.70525633</v>
+        <v>98.18102894</v>
       </c>
       <c r="F97" t="n">
-        <v>101.33961561</v>
+        <v>94.32323907</v>
       </c>
       <c r="G97" t="n">
-        <v>101.53095379</v>
+        <v>98.39660436</v>
       </c>
       <c r="H97" t="n">
-        <v>102.28727636</v>
+        <v>100.8603786</v>
       </c>
       <c r="I97" t="n">
-        <v>113.71774921</v>
+        <v>91.08462796000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>102.1887569</v>
+        <v>98.91296176</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>100.08352617</v>
+        <v>100.15785172</v>
       </c>
       <c r="E98" t="n">
-        <v>99.42412552</v>
+        <v>99.21458305</v>
       </c>
       <c r="F98" t="n">
-        <v>96.62890179999999</v>
+        <v>94.38708886000001</v>
       </c>
       <c r="G98" t="n">
-        <v>100.68647034</v>
+        <v>99.0624162</v>
       </c>
       <c r="H98" t="n">
-        <v>103.88475428</v>
+        <v>96.54660527</v>
       </c>
       <c r="I98" t="n">
-        <v>103.97278901</v>
+        <v>96.84525526</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>106.13774536</v>
+        <v>99.68841265</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>100.17900611</v>
+        <v>100.10755036</v>
       </c>
       <c r="E99" t="n">
-        <v>101.18383383</v>
+        <v>100.80025657</v>
       </c>
       <c r="F99" t="n">
-        <v>99.6800961</v>
+        <v>98.78431079000001</v>
       </c>
       <c r="G99" t="n">
-        <v>102.92306298</v>
+        <v>99.07994604</v>
       </c>
       <c r="H99" t="n">
-        <v>108.89662293</v>
+        <v>97.30928135000001</v>
       </c>
       <c r="I99" t="n">
-        <v>113.61332371</v>
+        <v>90.75797358</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>97.74822781</v>
+        <v>100.45956668</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>100.11621242</v>
+        <v>99.9819794</v>
       </c>
       <c r="E100" t="n">
-        <v>98.18102894</v>
+        <v>101.63983943</v>
       </c>
       <c r="F100" t="n">
-        <v>94.32323907</v>
+        <v>98.42985602</v>
       </c>
       <c r="G100" t="n">
-        <v>98.39660436</v>
+        <v>99.85412531999999</v>
       </c>
       <c r="H100" t="n">
-        <v>100.8603786</v>
+        <v>92.24057119</v>
       </c>
       <c r="I100" t="n">
-        <v>91.08462796000001</v>
+        <v>99.86874392999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>98.91296176</v>
+        <v>99.94617727000001</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>100.15785172</v>
+        <v>100.13557997</v>
       </c>
       <c r="E101" t="n">
-        <v>99.21458305</v>
+        <v>104.20642902</v>
       </c>
       <c r="F101" t="n">
-        <v>94.38708886000001</v>
+        <v>100.71221183</v>
       </c>
       <c r="G101" t="n">
-        <v>99.0624162</v>
+        <v>100.73517555</v>
       </c>
       <c r="H101" t="n">
-        <v>96.54660527</v>
+        <v>94.10875584999999</v>
       </c>
       <c r="I101" t="n">
-        <v>96.84525526</v>
+        <v>101.44183092</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>99.68841265</v>
+        <v>99.21819975</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>100.10755036</v>
+        <v>100.08812331</v>
       </c>
       <c r="E102" t="n">
-        <v>100.80025657</v>
+        <v>103.83558916</v>
       </c>
       <c r="F102" t="n">
-        <v>98.78431079000001</v>
+        <v>110.19405994</v>
       </c>
       <c r="G102" t="n">
-        <v>99.07994604</v>
+        <v>101.62516803</v>
       </c>
       <c r="H102" t="n">
-        <v>97.30928135000001</v>
+        <v>98.22701696999999</v>
       </c>
       <c r="I102" t="n">
-        <v>90.75797358</v>
+        <v>106.82198658</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.45956668</v>
+        <v>98.78712268</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>99.9819794</v>
+        <v>100.03064008</v>
       </c>
       <c r="E103" t="n">
-        <v>101.63983943</v>
+        <v>100.40058384</v>
       </c>
       <c r="F103" t="n">
-        <v>98.42985602</v>
+        <v>102.92528175</v>
       </c>
       <c r="G103" t="n">
-        <v>99.85412531999999</v>
+        <v>99.90578187</v>
       </c>
       <c r="H103" t="n">
-        <v>92.24057119</v>
+        <v>98.54981836</v>
       </c>
       <c r="I103" t="n">
-        <v>99.86874392999999</v>
+        <v>98.96204219000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.94617727000001</v>
+        <v>99.22374167</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>100.13557997</v>
+        <v>100.12629023</v>
       </c>
       <c r="E104" t="n">
-        <v>104.20642902</v>
+        <v>99.07643502000001</v>
       </c>
       <c r="F104" t="n">
-        <v>100.71221183</v>
+        <v>93.12107996</v>
       </c>
       <c r="G104" t="n">
-        <v>100.73517555</v>
+        <v>98.99944094</v>
       </c>
       <c r="H104" t="n">
-        <v>94.10875584999999</v>
+        <v>99.50789476999999</v>
       </c>
       <c r="I104" t="n">
-        <v>101.44183092</v>
+        <v>94.37302291</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.21819975</v>
+        <v>99.21360817</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>100.08812331</v>
+        <v>100.03641458</v>
       </c>
       <c r="E105" t="n">
-        <v>103.83558916</v>
+        <v>98.55201778</v>
       </c>
       <c r="F105" t="n">
-        <v>110.19405994</v>
+        <v>98.93773883999999</v>
       </c>
       <c r="G105" t="n">
-        <v>101.62516803</v>
+        <v>99.96942772</v>
       </c>
       <c r="H105" t="n">
-        <v>98.22701696999999</v>
+        <v>101.56070831</v>
       </c>
       <c r="I105" t="n">
-        <v>106.82198658</v>
+        <v>102.81077978</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.78712268</v>
+        <v>101.25517776</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>100.03064008</v>
+        <v>100.10145084</v>
       </c>
       <c r="E106" t="n">
-        <v>100.40058384</v>
+        <v>99.70525633</v>
       </c>
       <c r="F106" t="n">
-        <v>102.92528175</v>
+        <v>101.33961561</v>
       </c>
       <c r="G106" t="n">
-        <v>99.90578187</v>
+        <v>101.53095379</v>
       </c>
       <c r="H106" t="n">
-        <v>98.54981836</v>
+        <v>102.28727636</v>
       </c>
       <c r="I106" t="n">
-        <v>98.96204219000001</v>
+        <v>113.71774921</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>98.17866281000001</v>
+        <v>102.25803765</v>
       </c>
       <c r="C107" t="n">
-        <v>98.28164254000001</v>
+        <v>101.54315505</v>
       </c>
       <c r="D107" t="n">
-        <v>100.1162286</v>
+        <v>99.94410795</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>95.98393984000001</v>
+        <v>103.25316458</v>
       </c>
       <c r="G107" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H107" t="n">
-        <v>98.3165838</v>
+        <v>103.98310444</v>
       </c>
       <c r="I107" t="n">
-        <v>99.09153856</v>
+        <v>107.20616661</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>99.26923174</v>
+        <v>105.98077688</v>
       </c>
       <c r="C108" t="n">
-        <v>98.7888165</v>
+        <v>104.88131105</v>
       </c>
       <c r="D108" t="n">
-        <v>100.1722554</v>
+        <v>100.26244429</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>99.39802009</v>
+        <v>100.14337142</v>
       </c>
       <c r="G108" t="n">
-        <v>100.2</v>
+        <v>106.7</v>
       </c>
       <c r="H108" t="n">
-        <v>97.79936858000001</v>
+        <v>106.89635303</v>
       </c>
       <c r="I108" t="n">
-        <v>105.4727395</v>
+        <v>129.92910024</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.3298832</v>
+        <v>97.18182944</v>
       </c>
       <c r="C109" t="n">
-        <v>100.2300553</v>
+        <v>98.76694856</v>
       </c>
       <c r="D109" t="n">
-        <v>100.2952095</v>
+        <v>99.86378194</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>98.88391238</v>
+        <v>92.59937960000001</v>
       </c>
       <c r="G109" t="n">
-        <v>100.4</v>
+        <v>98.2</v>
       </c>
       <c r="H109" t="n">
-        <v>102.8600387</v>
+        <v>97.97858377</v>
       </c>
       <c r="I109" t="n">
-        <v>100.0807873</v>
+        <v>94.46890698</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>102.25803765</v>
+        <v>100.4769586</v>
       </c>
       <c r="C110" t="n">
-        <v>101.54315505</v>
+        <v>102.18891302</v>
       </c>
       <c r="D110" t="n">
-        <v>99.94410795</v>
+        <v>100.02247766</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>103.25316458</v>
+        <v>99.04822982</v>
       </c>
       <c r="G110" t="n">
-        <v>102</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>103.98310444</v>
+        <v>99.04508996</v>
       </c>
       <c r="I110" t="n">
-        <v>107.20616661</v>
+        <v>87.45095812</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>105.98077688</v>
+        <v>100.23427636</v>
       </c>
       <c r="C111" t="n">
-        <v>104.88131105</v>
+        <v>101.61652086</v>
       </c>
       <c r="D111" t="n">
-        <v>100.26244429</v>
+        <v>100.12187563</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>100.14337142</v>
+        <v>99.91942338</v>
       </c>
       <c r="G111" t="n">
-        <v>106.7</v>
+        <v>97.3</v>
       </c>
       <c r="H111" t="n">
-        <v>106.89635303</v>
+        <v>98.66339316</v>
       </c>
       <c r="I111" t="n">
-        <v>129.92910024</v>
+        <v>78.5006114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>97.18182944</v>
+        <v>101.13949865</v>
       </c>
       <c r="C112" t="n">
-        <v>98.76694856</v>
+        <v>100.83404608</v>
       </c>
       <c r="D112" t="n">
-        <v>99.86378194</v>
+        <v>100.04943327</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>92.59937960000001</v>
+        <v>98.99418134</v>
       </c>
       <c r="G112" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>97.97858377</v>
+        <v>97.50306093</v>
       </c>
       <c r="I112" t="n">
-        <v>94.46890698</v>
+        <v>87.54346584</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.4769586</v>
+        <v>100.56072381</v>
       </c>
       <c r="C113" t="n">
-        <v>102.18891302</v>
+        <v>98.69448847</v>
       </c>
       <c r="D113" t="n">
-        <v>100.02247766</v>
+        <v>99.98269526999999</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>99.04822982</v>
+        <v>98.45907539</v>
       </c>
       <c r="G113" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="H113" t="n">
-        <v>99.04508996</v>
+        <v>98.11553585999999</v>
       </c>
       <c r="I113" t="n">
-        <v>87.45095812</v>
+        <v>103.78915184</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>100.23427636</v>
+        <v>99.41269131999999</v>
       </c>
       <c r="C114" t="n">
-        <v>101.61652086</v>
+        <v>99.1719946</v>
       </c>
       <c r="D114" t="n">
-        <v>100.12187563</v>
+        <v>100.0735403</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>99.91942338</v>
+        <v>103.5050353</v>
       </c>
       <c r="G114" t="n">
-        <v>97.3</v>
+        <v>100.4</v>
       </c>
       <c r="H114" t="n">
-        <v>98.66339316</v>
+        <v>97.43157255</v>
       </c>
       <c r="I114" t="n">
-        <v>78.5006114</v>
+        <v>107.9313618</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>101.13949865</v>
+        <v>99.4297805599999</v>
       </c>
       <c r="C115" t="n">
-        <v>100.83404608</v>
+        <v>99.93041352</v>
       </c>
       <c r="D115" t="n">
-        <v>100.04943327</v>
+        <v>100.036308899999</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>98.99418134</v>
+        <v>105.890713399999</v>
       </c>
       <c r="G115" t="n">
-        <v>98.59999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="H115" t="n">
-        <v>97.50306093</v>
+        <v>105.155020399999</v>
       </c>
       <c r="I115" t="n">
-        <v>87.54346584</v>
+        <v>110.735386199999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>100.56072381</v>
+        <v>98.17866281000001</v>
       </c>
       <c r="C116" t="n">
-        <v>98.69448847</v>
+        <v>98.28164254000001</v>
       </c>
       <c r="D116" t="n">
-        <v>99.98269526999999</v>
+        <v>100.1162286</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>98.45907539</v>
+        <v>95.98393984000001</v>
       </c>
       <c r="G116" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="H116" t="n">
-        <v>98.11553585999999</v>
+        <v>98.3165838</v>
       </c>
       <c r="I116" t="n">
-        <v>103.78915184</v>
+        <v>99.09153856</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.41269131999999</v>
+        <v>99.26923174</v>
       </c>
       <c r="C117" t="n">
-        <v>99.1719946</v>
+        <v>98.7888165</v>
       </c>
       <c r="D117" t="n">
-        <v>100.0735403</v>
+        <v>100.1722554</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>103.5050353</v>
+        <v>99.39802009</v>
       </c>
       <c r="G117" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="H117" t="n">
-        <v>97.43157255</v>
+        <v>97.79936858000001</v>
       </c>
       <c r="I117" t="n">
-        <v>107.9313618</v>
+        <v>105.4727395</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99.4297805599999</v>
+        <v>100.3298832</v>
       </c>
       <c r="C118" t="n">
-        <v>99.93041352</v>
+        <v>100.2300553</v>
       </c>
       <c r="D118" t="n">
-        <v>100.036308899999</v>
+        <v>100.2952095</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>105.890713399999</v>
+        <v>98.88391238</v>
       </c>
       <c r="G118" t="n">
-        <v>101.7</v>
+        <v>100.4</v>
       </c>
       <c r="H118" t="n">
-        <v>105.155020399999</v>
+        <v>102.8600387</v>
       </c>
       <c r="I118" t="n">
-        <v>110.735386199999</v>
+        <v>100.0807873</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>99.42818831</v>
+        <v>104.3594236</v>
       </c>
       <c r="C119" t="n">
-        <v>100.2700661</v>
+        <v>102.410884</v>
       </c>
       <c r="D119" t="n">
-        <v>100.0552618</v>
+        <v>100.2456664</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>95.39269856999999</v>
+        <v>98.28995073</v>
       </c>
       <c r="G119" t="n">
-        <v>100</v>
+        <v>102.3</v>
       </c>
       <c r="H119" t="n">
-        <v>100.6726932</v>
+        <v>105.6654528</v>
       </c>
       <c r="I119" t="n">
-        <v>100.3836363</v>
+        <v>106.1606646</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>98.68896589000001</v>
+        <v>101.77496873</v>
       </c>
       <c r="C120" t="n">
-        <v>99.72883887</v>
+        <v>99.13257381</v>
       </c>
       <c r="D120" t="n">
-        <v>100.0420547</v>
+        <v>100.20575395</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>101.7990128</v>
+        <v>93.77387629</v>
       </c>
       <c r="G120" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>102.1335406</v>
+        <v>104.13401022</v>
       </c>
       <c r="I120" t="n">
-        <v>95.17216659</v>
+        <v>94.58212666999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>101.1034557</v>
+        <v>99.67977218999999</v>
       </c>
       <c r="C121" t="n">
-        <v>100.8245937</v>
+        <v>97.53704501999999</v>
       </c>
       <c r="D121" t="n">
-        <v>100.1202131</v>
+        <v>100.0571397</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>104.394503</v>
+        <v>95.97838578</v>
       </c>
       <c r="G121" t="n">
-        <v>101.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>105.4747223</v>
+        <v>98.77638741</v>
       </c>
       <c r="I121" t="n">
-        <v>101.0108056</v>
+        <v>92.12216714</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>104.3594236</v>
+        <v>101.5008312</v>
       </c>
       <c r="C122" t="n">
-        <v>102.410884</v>
+        <v>98.76951665</v>
       </c>
       <c r="D122" t="n">
-        <v>100.2456664</v>
+        <v>100.1182741</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>98.28995073</v>
+        <v>99.4171626</v>
       </c>
       <c r="G122" t="n">
-        <v>102.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>105.6654528</v>
+        <v>101.8571364</v>
       </c>
       <c r="I122" t="n">
-        <v>106.1606646</v>
+        <v>95.02838049</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>101.77496873</v>
+        <v>101.1545549</v>
       </c>
       <c r="C123" t="n">
-        <v>99.13257381</v>
+        <v>98.24192662</v>
       </c>
       <c r="D123" t="n">
-        <v>100.20575395</v>
+        <v>100.05557</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>93.77387629</v>
+        <v>96.56374196</v>
       </c>
       <c r="G123" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="H123" t="n">
-        <v>104.13401022</v>
+        <v>104.2119575</v>
       </c>
       <c r="I123" t="n">
-        <v>94.58212666999999</v>
+        <v>93.83987847</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.67977218999999</v>
+        <v>99.49587755</v>
       </c>
       <c r="C124" t="n">
-        <v>97.53704501999999</v>
+        <v>97.81960771</v>
       </c>
       <c r="D124" t="n">
-        <v>100.0571397</v>
+        <v>100.1533106</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>95.97838578</v>
+        <v>104.9434364</v>
       </c>
       <c r="G124" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="H124" t="n">
-        <v>98.77638741</v>
+        <v>95.79267818</v>
       </c>
       <c r="I124" t="n">
-        <v>92.12216714</v>
+        <v>98.86924498</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101.5008312</v>
+        <v>99.80164211</v>
       </c>
       <c r="C125" t="n">
-        <v>98.76951665</v>
+        <v>99.47572827</v>
       </c>
       <c r="D125" t="n">
-        <v>100.1182741</v>
+        <v>100.0270303</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>99.4171626</v>
+        <v>103.2367666</v>
       </c>
       <c r="G125" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>101.8571364</v>
+        <v>90.82461594999999</v>
       </c>
       <c r="I125" t="n">
-        <v>95.02838049</v>
+        <v>107.034266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>101.1545549</v>
+        <v>98.88980228</v>
       </c>
       <c r="C126" t="n">
-        <v>98.24192662</v>
+        <v>100.7370949</v>
       </c>
       <c r="D126" t="n">
-        <v>100.05557</v>
+        <v>100.0988897</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>96.56374196</v>
+        <v>113.4933598</v>
       </c>
       <c r="G126" t="n">
-        <v>99.3</v>
+        <v>101.2</v>
       </c>
       <c r="H126" t="n">
-        <v>104.2119575</v>
+        <v>95.8130685</v>
       </c>
       <c r="I126" t="n">
-        <v>93.83987847</v>
+        <v>108.5169327</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.49587755</v>
+        <v>98.22258198999999</v>
       </c>
       <c r="C127" t="n">
-        <v>97.81960771</v>
+        <v>100.8900003</v>
       </c>
       <c r="D127" t="n">
-        <v>100.1533106</v>
+        <v>100.132393</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>104.9434364</v>
+        <v>105.2663719</v>
       </c>
       <c r="G127" t="n">
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="H127" t="n">
-        <v>95.79267818</v>
+        <v>101.9275204</v>
       </c>
       <c r="I127" t="n">
-        <v>98.86924498</v>
+        <v>99.94545598000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.80164211</v>
+        <v>99.42818831</v>
       </c>
       <c r="C128" t="n">
-        <v>99.47572827</v>
+        <v>100.2700661</v>
       </c>
       <c r="D128" t="n">
-        <v>100.0270303</v>
+        <v>100.0552618</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>103.2367666</v>
+        <v>95.39269856999999</v>
       </c>
       <c r="G128" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H128" t="n">
-        <v>90.82461594999999</v>
+        <v>100.6726932</v>
       </c>
       <c r="I128" t="n">
-        <v>107.034266</v>
+        <v>100.3836363</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>98.88980228</v>
+        <v>98.68896589000001</v>
       </c>
       <c r="C129" t="n">
-        <v>100.7370949</v>
+        <v>99.72883887</v>
       </c>
       <c r="D129" t="n">
-        <v>100.0988897</v>
+        <v>100.0420547</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>113.4933598</v>
+        <v>101.7990128</v>
       </c>
       <c r="G129" t="n">
-        <v>101.2</v>
+        <v>99.5</v>
       </c>
       <c r="H129" t="n">
-        <v>95.8130685</v>
+        <v>102.1335406</v>
       </c>
       <c r="I129" t="n">
-        <v>108.5169327</v>
+        <v>95.17216659</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>98.22258198999999</v>
+        <v>101.1034557</v>
       </c>
       <c r="C130" t="n">
-        <v>100.8900003</v>
+        <v>100.8245937</v>
       </c>
       <c r="D130" t="n">
-        <v>100.132393</v>
+        <v>100.1202131</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>105.2663719</v>
+        <v>104.394503</v>
       </c>
       <c r="G130" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="H130" t="n">
-        <v>101.9275204</v>
+        <v>105.4747223</v>
       </c>
       <c r="I130" t="n">
-        <v>99.94545598000001</v>
+        <v>101.0108056</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.06270017</v>
+        <v>102.7568729</v>
       </c>
       <c r="C131" t="n">
-        <v>101.04508748</v>
+        <v>100.5939528</v>
       </c>
       <c r="D131" t="n">
-        <v>100.11490137</v>
+        <v>100.1256999</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>96.69860133</v>
+        <v>100.7447488</v>
       </c>
       <c r="G131" t="n">
-        <v>99.7</v>
+        <v>102.2</v>
       </c>
       <c r="H131" t="n">
-        <v>101.93009811</v>
+        <v>105.7273678</v>
       </c>
       <c r="I131" t="n">
-        <v>96.5144906</v>
+        <v>109.4890848</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99.81423282999999</v>
+        <v>107.9968864</v>
       </c>
       <c r="C132" t="n">
-        <v>100.17237254</v>
+        <v>102.0237129</v>
       </c>
       <c r="D132" t="n">
-        <v>100.0666316</v>
+        <v>100.1360082</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>99.79705687000001</v>
+        <v>100.5557413</v>
       </c>
       <c r="G132" t="n">
-        <v>98.8</v>
+        <v>104.4</v>
       </c>
       <c r="H132" t="n">
-        <v>103.70724048</v>
+        <v>106.4148644</v>
       </c>
       <c r="I132" t="n">
-        <v>87.68215178</v>
+        <v>118.1400593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>101.14301255</v>
+        <v>96.84665817</v>
       </c>
       <c r="C133" t="n">
-        <v>100.87156767</v>
+        <v>94.56915054</v>
       </c>
       <c r="D133" t="n">
-        <v>100.03194166</v>
+        <v>100.046893</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>98.76279518</v>
+        <v>92.12537820999999</v>
       </c>
       <c r="G133" t="n">
-        <v>101.1</v>
+        <v>95.8</v>
       </c>
       <c r="H133" t="n">
-        <v>101.90669727</v>
+        <v>97.62611738</v>
       </c>
       <c r="I133" t="n">
-        <v>103.67998203</v>
+        <v>85.19883153000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>102.7568729</v>
+        <v>98.8</v>
       </c>
       <c r="C134" t="n">
-        <v>100.5939528</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>100.1256999</v>
+        <v>100</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>100.7447488</v>
+        <v>97.2</v>
       </c>
       <c r="G134" t="n">
-        <v>102.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H134" t="n">
-        <v>105.7273678</v>
+        <v>98.8</v>
       </c>
       <c r="I134" t="n">
-        <v>109.4890848</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>107.9968864</v>
+        <v>99</v>
       </c>
       <c r="C135" t="n">
-        <v>102.0237129</v>
+        <v>97.7</v>
       </c>
       <c r="D135" t="n">
-        <v>100.1360082</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>100.5557413</v>
+        <v>101.5</v>
       </c>
       <c r="G135" t="n">
-        <v>104.4</v>
+        <v>98.7</v>
       </c>
       <c r="H135" t="n">
-        <v>106.4148644</v>
+        <v>97.3</v>
       </c>
       <c r="I135" t="n">
-        <v>118.1400593</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>96.84665817</v>
+        <v>99.20069377999999</v>
       </c>
       <c r="C136" t="n">
-        <v>94.56915054</v>
+        <v>100.46616395</v>
       </c>
       <c r="D136" t="n">
-        <v>100.046893</v>
+        <v>99.94287135</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>92.12537820999999</v>
+        <v>99.97209226</v>
       </c>
       <c r="G136" t="n">
-        <v>95.8</v>
+        <v>99.2</v>
       </c>
       <c r="H136" t="n">
-        <v>97.62611738</v>
+        <v>93.2735431</v>
       </c>
       <c r="I136" t="n">
-        <v>85.19883153000001</v>
+        <v>98.19140049000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>98.8</v>
+        <v>99.63788716000001</v>
       </c>
       <c r="C137" t="n">
-        <v>95.90000000000001</v>
+        <v>101.55949023</v>
       </c>
       <c r="D137" t="n">
-        <v>100</v>
+        <v>99.938368</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>97.2</v>
+        <v>100.21439898</v>
       </c>
       <c r="G137" t="n">
-        <v>98.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="H137" t="n">
-        <v>98.8</v>
+        <v>96.25287736999999</v>
       </c>
       <c r="I137" t="n">
-        <v>94.5</v>
+        <v>101.67807286</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99</v>
+        <v>99.68675794000001</v>
       </c>
       <c r="C138" t="n">
-        <v>97.7</v>
+        <v>103.83921362</v>
       </c>
       <c r="D138" t="n">
-        <v>99.90000000000001</v>
+        <v>99.99305203999999</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>101.5</v>
+        <v>111.96284591</v>
       </c>
       <c r="G138" t="n">
-        <v>98.7</v>
+        <v>102.4</v>
       </c>
       <c r="H138" t="n">
-        <v>97.3</v>
+        <v>100.76434451</v>
       </c>
       <c r="I138" t="n">
-        <v>95.40000000000001</v>
+        <v>109.02118261</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.20069377999999</v>
+        <v>98.46577098</v>
       </c>
       <c r="C139" t="n">
-        <v>100.46616395</v>
+        <v>102.48526607</v>
       </c>
       <c r="D139" t="n">
-        <v>99.94287135</v>
+        <v>100.14266072</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>99.97209226</v>
+        <v>102.24930455</v>
       </c>
       <c r="G139" t="n">
-        <v>99.2</v>
+        <v>102.4</v>
       </c>
       <c r="H139" t="n">
-        <v>93.2735431</v>
+        <v>106.3915999</v>
       </c>
       <c r="I139" t="n">
-        <v>98.19140049000001</v>
+        <v>109.77220544</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.63788716000001</v>
+        <v>99.06270017</v>
       </c>
       <c r="C140" t="n">
-        <v>101.55949023</v>
+        <v>101.04508748</v>
       </c>
       <c r="D140" t="n">
-        <v>99.938368</v>
+        <v>100.11490137</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>100.21439898</v>
+        <v>96.69860133</v>
       </c>
       <c r="G140" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="H140" t="n">
-        <v>96.25287736999999</v>
+        <v>101.93009811</v>
       </c>
       <c r="I140" t="n">
-        <v>101.67807286</v>
+        <v>96.5144906</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>99.68675794000001</v>
+        <v>99.81423282999999</v>
       </c>
       <c r="C141" t="n">
-        <v>103.83921362</v>
+        <v>100.17237254</v>
       </c>
       <c r="D141" t="n">
-        <v>99.99305203999999</v>
+        <v>100.0666316</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>111.96284591</v>
+        <v>99.79705687000001</v>
       </c>
       <c r="G141" t="n">
-        <v>102.4</v>
+        <v>98.8</v>
       </c>
       <c r="H141" t="n">
-        <v>100.76434451</v>
+        <v>103.70724048</v>
       </c>
       <c r="I141" t="n">
-        <v>109.02118261</v>
+        <v>87.68215178</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>98.46577098</v>
+        <v>101.14301255</v>
       </c>
       <c r="C142" t="n">
-        <v>102.48526607</v>
+        <v>100.87156767</v>
       </c>
       <c r="D142" t="n">
-        <v>100.14266072</v>
+        <v>100.03194166</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>102.24930455</v>
+        <v>98.76279518</v>
       </c>
       <c r="G142" t="n">
-        <v>102.4</v>
+        <v>101.1</v>
       </c>
       <c r="H142" t="n">
-        <v>106.3915999</v>
+        <v>101.90669727</v>
       </c>
       <c r="I142" t="n">
-        <v>109.77220544</v>
+        <v>103.67998203</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>98.91515527</v>
+        <v>101.98454051</v>
       </c>
       <c r="C143" t="n">
-        <v>114.72533147</v>
+        <v>99.94504995</v>
       </c>
       <c r="D143" t="n">
-        <v>100.07031902</v>
+        <v>100.08779697</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>98.74420662999999</v>
+        <v>100.38392456</v>
       </c>
       <c r="G143" t="n">
-        <v>103.6</v>
+        <v>101.6</v>
       </c>
       <c r="H143" t="n">
-        <v>94.32164061</v>
+        <v>102.27483829</v>
       </c>
       <c r="I143" t="n">
-        <v>98.26642837</v>
+        <v>109.10288794</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>99.48106527</v>
+        <v>103.96765446</v>
       </c>
       <c r="C144" t="n">
-        <v>104.83686809</v>
+        <v>100.90985037</v>
       </c>
       <c r="D144" t="n">
-        <v>100.18296982</v>
+        <v>100.17526662</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>99.49034383999999</v>
+        <v>95.53032889000001</v>
       </c>
       <c r="G144" t="n">
-        <v>101.8</v>
+        <v>103.2</v>
       </c>
       <c r="H144" t="n">
-        <v>96.98624733</v>
+        <v>105.36951712</v>
       </c>
       <c r="I144" t="n">
-        <v>101.42253347</v>
+        <v>115.71125772</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.05421242</v>
+        <v>96.41042016999999</v>
       </c>
       <c r="C145" t="n">
-        <v>96.15447127</v>
+        <v>99.89162002</v>
       </c>
       <c r="D145" t="n">
-        <v>100.00253341</v>
+        <v>99.97994668</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>95.26216904</v>
+        <v>94.8911322</v>
       </c>
       <c r="G145" t="n">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>100.63767643</v>
+        <v>100.33849744</v>
       </c>
       <c r="I145" t="n">
-        <v>110.6130744</v>
+        <v>97.36564468</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>101.98454051</v>
+        <v>100.45249631</v>
       </c>
       <c r="C146" t="n">
-        <v>99.94504995</v>
+        <v>100.89791724</v>
       </c>
       <c r="D146" t="n">
-        <v>100.08779697</v>
+        <v>100.02256786</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>100.38392456</v>
+        <v>102.71762889</v>
       </c>
       <c r="G146" t="n">
-        <v>101.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>102.27483829</v>
+        <v>102.59211397</v>
       </c>
       <c r="I146" t="n">
-        <v>109.10288794</v>
+        <v>95.51041518</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>103.96765446</v>
+        <v>99.93501039</v>
       </c>
       <c r="C147" t="n">
-        <v>100.90985037</v>
+        <v>99.83025189999999</v>
       </c>
       <c r="D147" t="n">
-        <v>100.17526662</v>
+        <v>99.98833432000001</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>95.53032889000001</v>
+        <v>106.36348116</v>
       </c>
       <c r="G147" t="n">
-        <v>103.2</v>
+        <v>100.2</v>
       </c>
       <c r="H147" t="n">
-        <v>105.36951712</v>
+        <v>110.12336143</v>
       </c>
       <c r="I147" t="n">
-        <v>115.71125772</v>
+        <v>92.08919611</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>96.41042016999999</v>
+        <v>99.08153754999999</v>
       </c>
       <c r="C148" t="n">
-        <v>99.89162002</v>
+        <v>102.1947244</v>
       </c>
       <c r="D148" t="n">
-        <v>99.97994668</v>
+        <v>100.01350426</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>94.8911322</v>
+        <v>97.73287745</v>
       </c>
       <c r="G148" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="H148" t="n">
-        <v>100.33849744</v>
+        <v>105.09447588</v>
       </c>
       <c r="I148" t="n">
-        <v>97.36564468</v>
+        <v>90.31519459</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.45249631</v>
+        <v>100.43302151</v>
       </c>
       <c r="C149" t="n">
-        <v>100.89791724</v>
+        <v>104.91919203</v>
       </c>
       <c r="D149" t="n">
-        <v>100.02256786</v>
+        <v>99.98319339</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>102.71762889</v>
+        <v>104.19164217</v>
       </c>
       <c r="G149" t="n">
-        <v>99.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="H149" t="n">
-        <v>102.59211397</v>
+        <v>93.79437716</v>
       </c>
       <c r="I149" t="n">
-        <v>95.51041518</v>
+        <v>102.58405243</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>99.93501039</v>
+        <v>100.88752807</v>
       </c>
       <c r="C150" t="n">
-        <v>99.83025189999999</v>
+        <v>114.9582799</v>
       </c>
       <c r="D150" t="n">
-        <v>99.98833432000001</v>
+        <v>100.09339292</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>106.36348116</v>
+        <v>105.04795139</v>
       </c>
       <c r="G150" t="n">
-        <v>100.2</v>
+        <v>103.2</v>
       </c>
       <c r="H150" t="n">
-        <v>110.12336143</v>
+        <v>89.85137985999999</v>
       </c>
       <c r="I150" t="n">
-        <v>92.08919611</v>
+        <v>102.79181129</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>99.08153754999999</v>
+        <v>99.8326644</v>
       </c>
       <c r="C151" t="n">
-        <v>102.1947244</v>
+        <v>115.01246007</v>
       </c>
       <c r="D151" t="n">
-        <v>100.01350426</v>
+        <v>100.0267512</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>97.73287745</v>
+        <v>106.70033807</v>
       </c>
       <c r="G151" t="n">
-        <v>99.7</v>
+        <v>103.5</v>
       </c>
       <c r="H151" t="n">
-        <v>105.09447588</v>
+        <v>92.40740671</v>
       </c>
       <c r="I151" t="n">
-        <v>90.31519459</v>
+        <v>97.64753761999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>100.43302151</v>
+        <v>98.91515527</v>
       </c>
       <c r="C152" t="n">
-        <v>104.91919203</v>
+        <v>114.72533147</v>
       </c>
       <c r="D152" t="n">
-        <v>99.98319339</v>
+        <v>100.07031902</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>104.19164217</v>
+        <v>98.74420662999999</v>
       </c>
       <c r="G152" t="n">
-        <v>100.9</v>
+        <v>103.6</v>
       </c>
       <c r="H152" t="n">
-        <v>93.79437716</v>
+        <v>94.32164061</v>
       </c>
       <c r="I152" t="n">
-        <v>102.58405243</v>
+        <v>98.26642837</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.88752807</v>
+        <v>99.48106527</v>
       </c>
       <c r="C153" t="n">
-        <v>114.9582799</v>
+        <v>104.83686809</v>
       </c>
       <c r="D153" t="n">
-        <v>100.09339292</v>
+        <v>100.18296982</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>105.04795139</v>
+        <v>99.49034383999999</v>
       </c>
       <c r="G153" t="n">
-        <v>103.2</v>
+        <v>101.8</v>
       </c>
       <c r="H153" t="n">
-        <v>89.85137985999999</v>
+        <v>96.98624733</v>
       </c>
       <c r="I153" t="n">
-        <v>102.79181129</v>
+        <v>101.42253347</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>99.8326644</v>
+        <v>100.05421242</v>
       </c>
       <c r="C154" t="n">
-        <v>115.01246007</v>
+        <v>96.15447127</v>
       </c>
       <c r="D154" t="n">
-        <v>100.0267512</v>
+        <v>100.00253341</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>106.70033807</v>
+        <v>95.26216904</v>
       </c>
       <c r="G154" t="n">
-        <v>103.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>92.40740671</v>
+        <v>100.63767643</v>
       </c>
       <c r="I154" t="n">
-        <v>97.64753761999999</v>
+        <v>110.6130744</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>98.8</v>
+        <v>104.49033984</v>
       </c>
       <c r="C155" t="n">
-        <v>95.5</v>
+        <v>106.14635943</v>
       </c>
       <c r="D155" t="n">
-        <v>100.1</v>
+        <v>99.92014362</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>98.09999999999999</v>
+        <v>96.81155017</v>
       </c>
       <c r="G155" t="n">
-        <v>98.2</v>
+        <v>104.4</v>
       </c>
       <c r="H155" t="n">
-        <v>101.8</v>
+        <v>105.53646449</v>
       </c>
       <c r="I155" t="n">
-        <v>97.90000000000001</v>
+        <v>115.30777786</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>98.09999999999999</v>
+        <v>103.00592215</v>
       </c>
       <c r="C156" t="n">
-        <v>95.3</v>
+        <v>107.11988251</v>
       </c>
       <c r="D156" t="n">
-        <v>100.1</v>
+        <v>100.40154914</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>98.59999999999999</v>
+        <v>94.19273524</v>
       </c>
       <c r="G156" t="n">
-        <v>97.59999999999999</v>
+        <v>104.3</v>
       </c>
       <c r="H156" t="n">
-        <v>100</v>
+        <v>104.76534591</v>
       </c>
       <c r="I156" t="n">
-        <v>94.3</v>
+        <v>109.51887415</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>100.8</v>
+        <v>96.46130417000001</v>
       </c>
       <c r="C157" t="n">
-        <v>104.3</v>
+        <v>94.81538217000001</v>
       </c>
       <c r="D157" t="n">
-        <v>100</v>
+        <v>100.02399105</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>102.4</v>
+        <v>95.71392299</v>
       </c>
       <c r="G157" t="n">
-        <v>102.8</v>
+        <v>96.2</v>
       </c>
       <c r="H157" t="n">
-        <v>103.5</v>
+        <v>99.75317414</v>
       </c>
       <c r="I157" t="n">
-        <v>108.5</v>
+        <v>87.76969439</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>104.49033984</v>
+        <v>99.93690067999999</v>
       </c>
       <c r="C158" t="n">
-        <v>106.14635943</v>
+        <v>94.47962579999999</v>
       </c>
       <c r="D158" t="n">
-        <v>99.92014362</v>
+        <v>100.4388131</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>96.81155017</v>
+        <v>98.08178470999999</v>
       </c>
       <c r="G158" t="n">
-        <v>104.4</v>
+        <v>97</v>
       </c>
       <c r="H158" t="n">
-        <v>105.53646449</v>
+        <v>97.83166711</v>
       </c>
       <c r="I158" t="n">
-        <v>115.30777786</v>
+        <v>92.01020579999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>103.00592215</v>
+        <v>101.27740708</v>
       </c>
       <c r="C159" t="n">
-        <v>107.11988251</v>
+        <v>94.263586</v>
       </c>
       <c r="D159" t="n">
-        <v>100.40154914</v>
+        <v>100.34013728</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>94.19273524</v>
+        <v>95.89262660999999</v>
       </c>
       <c r="G159" t="n">
-        <v>104.3</v>
+        <v>96.5</v>
       </c>
       <c r="H159" t="n">
-        <v>104.76534591</v>
+        <v>99.24882117999999</v>
       </c>
       <c r="I159" t="n">
-        <v>109.51887415</v>
+        <v>87.54454457</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>96.46130417000001</v>
+        <v>100.09276848</v>
       </c>
       <c r="C160" t="n">
-        <v>94.81538217000001</v>
+        <v>102.18576466</v>
       </c>
       <c r="D160" t="n">
-        <v>100.02399105</v>
+        <v>100.07656214</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>95.71392299</v>
+        <v>96.3483123</v>
       </c>
       <c r="G160" t="n">
-        <v>96.2</v>
+        <v>100.2</v>
       </c>
       <c r="H160" t="n">
-        <v>99.75317414</v>
+        <v>92.43116448000001</v>
       </c>
       <c r="I160" t="n">
-        <v>87.76969439</v>
+        <v>102.81260943</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.93690067999999</v>
+        <v>100.41872396</v>
       </c>
       <c r="C161" t="n">
-        <v>94.47962579999999</v>
+        <v>107.35655219</v>
       </c>
       <c r="D161" t="n">
-        <v>100.4388131</v>
+        <v>99.96555117</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>98.08178470999999</v>
+        <v>103.05891139</v>
       </c>
       <c r="G161" t="n">
-        <v>97</v>
+        <v>102.8</v>
       </c>
       <c r="H161" t="n">
-        <v>97.83166711</v>
+        <v>95.5958935</v>
       </c>
       <c r="I161" t="n">
-        <v>92.01020579999999</v>
+        <v>106.27448685</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>101.27740708</v>
+        <v>99.56681087</v>
       </c>
       <c r="C162" t="n">
-        <v>94.263586</v>
+        <v>101.37606817</v>
       </c>
       <c r="D162" t="n">
-        <v>100.34013728</v>
+        <v>100.04431458</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>95.89262660999999</v>
+        <v>109.36559714</v>
       </c>
       <c r="G162" t="n">
-        <v>96.5</v>
+        <v>101.4</v>
       </c>
       <c r="H162" t="n">
-        <v>99.24882117999999</v>
+        <v>99.59954721</v>
       </c>
       <c r="I162" t="n">
-        <v>87.54454457</v>
+        <v>106.35278039</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>100.09276848</v>
+        <v>99.05136982000001</v>
       </c>
       <c r="C163" t="n">
-        <v>102.18576466</v>
+        <v>99.24570543</v>
       </c>
       <c r="D163" t="n">
-        <v>100.07656214</v>
+        <v>99.98490185999999</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>96.3483123</v>
+        <v>100.9763364</v>
       </c>
       <c r="G163" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="H163" t="n">
-        <v>92.43116448000001</v>
+        <v>107.29991848</v>
       </c>
       <c r="I163" t="n">
-        <v>102.81260943</v>
+        <v>102.43134517</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>100.41872396</v>
+        <v>98.8</v>
       </c>
       <c r="C164" t="n">
-        <v>107.35655219</v>
+        <v>95.5</v>
       </c>
       <c r="D164" t="n">
-        <v>99.96555117</v>
+        <v>100.1</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>103.05891139</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G164" t="n">
-        <v>102.8</v>
+        <v>98.2</v>
       </c>
       <c r="H164" t="n">
-        <v>95.5958935</v>
+        <v>101.8</v>
       </c>
       <c r="I164" t="n">
-        <v>106.27448685</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>99.56681087</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>101.37606817</v>
+        <v>95.3</v>
       </c>
       <c r="D165" t="n">
-        <v>100.04431458</v>
+        <v>100.1</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>109.36559714</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>101.4</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H165" t="n">
-        <v>99.59954721</v>
+        <v>100</v>
       </c>
       <c r="I165" t="n">
-        <v>106.35278039</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.05136982000001</v>
+        <v>100.8</v>
       </c>
       <c r="C166" t="n">
-        <v>99.24570543</v>
+        <v>104.3</v>
       </c>
       <c r="D166" t="n">
-        <v>99.98490185999999</v>
+        <v>100</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>100.9763364</v>
+        <v>102.4</v>
       </c>
       <c r="G166" t="n">
-        <v>100.4</v>
+        <v>102.8</v>
       </c>
       <c r="H166" t="n">
-        <v>107.29991848</v>
+        <v>103.5</v>
       </c>
       <c r="I166" t="n">
-        <v>102.43134517</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>97.7</v>
+        <v>103.3</v>
       </c>
       <c r="C167" t="n">
-        <v>98.7</v>
+        <v>103.7</v>
       </c>
       <c r="D167" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>98.09999999999999</v>
+        <v>109.4</v>
       </c>
       <c r="G167" t="n">
-        <v>101.7</v>
+        <v>104.1</v>
       </c>
       <c r="H167" t="n">
-        <v>102.9</v>
+        <v>102.3</v>
       </c>
       <c r="I167" t="n">
-        <v>116.6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>98.3</v>
+        <v>108.7</v>
       </c>
       <c r="C168" t="n">
-        <v>105.2</v>
+        <v>99</v>
       </c>
       <c r="D168" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>103</v>
+        <v>96.2</v>
       </c>
       <c r="G168" t="n">
-        <v>102.4</v>
+        <v>101.6</v>
       </c>
       <c r="H168" t="n">
-        <v>104.3</v>
+        <v>106.1</v>
       </c>
       <c r="I168" t="n">
-        <v>106.8</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>100.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C169" t="n">
-        <v>100.5</v>
+        <v>93.5</v>
       </c>
       <c r="D169" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>98.2</v>
+        <v>96.2</v>
       </c>
       <c r="G169" t="n">
-        <v>99.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H169" t="n">
-        <v>103.4</v>
+        <v>99.8</v>
       </c>
       <c r="I169" t="n">
-        <v>91.7</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>103.3</v>
+        <v>103</v>
       </c>
       <c r="C170" t="n">
-        <v>103.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>109.4</v>
+        <v>101.4</v>
       </c>
       <c r="G170" t="n">
-        <v>104.1</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H170" t="n">
-        <v>102.3</v>
+        <v>96.2</v>
       </c>
       <c r="I170" t="n">
-        <v>119</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>108.7</v>
+        <v>103</v>
       </c>
       <c r="C171" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D171" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>96.2</v>
+        <v>102.8</v>
       </c>
       <c r="G171" t="n">
-        <v>101.6</v>
+        <v>98.3</v>
       </c>
       <c r="H171" t="n">
-        <v>106.1</v>
+        <v>97.3</v>
       </c>
       <c r="I171" t="n">
-        <v>101.8</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>98.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C172" t="n">
-        <v>93.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D172" t="n">
         <v>100</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>96.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>96.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="H172" t="n">
-        <v>99.8</v>
+        <v>95.5</v>
       </c>
       <c r="I172" t="n">
-        <v>85.5</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C173" t="n">
-        <v>93.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D173" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="G173" t="n">
-        <v>97.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H173" t="n">
-        <v>96.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I173" t="n">
-        <v>91.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>103</v>
+        <v>97.7</v>
       </c>
       <c r="C174" t="n">
-        <v>94</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>102.8</v>
+        <v>107.3</v>
       </c>
       <c r="G174" t="n">
-        <v>98.3</v>
+        <v>100.8</v>
       </c>
       <c r="H174" t="n">
-        <v>97.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I174" t="n">
-        <v>94.40000000000001</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>100.1</v>
+        <v>97.5</v>
       </c>
       <c r="C175" t="n">
-        <v>92.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="D175" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G175" t="n">
-        <v>97.8</v>
+        <v>99.3</v>
       </c>
       <c r="H175" t="n">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="I175" t="n">
-        <v>97.7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="C176" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="D176" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>100.9</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>99.59999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="H176" t="n">
-        <v>97.90000000000001</v>
+        <v>102.9</v>
       </c>
       <c r="I176" t="n">
-        <v>101.3</v>
+        <v>116.6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="C177" t="n">
-        <v>99.09999999999999</v>
+        <v>105.2</v>
       </c>
       <c r="D177" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>107.3</v>
+        <v>103</v>
       </c>
       <c r="G177" t="n">
-        <v>100.8</v>
+        <v>102.4</v>
       </c>
       <c r="H177" t="n">
-        <v>99.59999999999999</v>
+        <v>104.3</v>
       </c>
       <c r="I177" t="n">
-        <v>108.6</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>97.5</v>
+        <v>100.3</v>
       </c>
       <c r="C178" t="n">
-        <v>97.7</v>
+        <v>100.5</v>
       </c>
       <c r="D178" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>99.8</v>
+        <v>98.2</v>
       </c>
       <c r="G178" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H178" t="n">
-        <v>100</v>
+        <v>103.4</v>
       </c>
       <c r="I178" t="n">
-        <v>101</v>
+        <v>91.7</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类居民消费价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类居民消费价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,561 +478,569 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.8</v>
+        <v>99.98334803</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>102.3</v>
+        <v>100.71770112</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7</v>
+        <v>101.081751</v>
       </c>
       <c r="F2" t="n">
-        <v>104.4</v>
+        <v>97.55633757</v>
       </c>
       <c r="G2" t="n">
-        <v>103.8</v>
+        <v>101.0502515</v>
       </c>
       <c r="H2" t="n">
-        <v>104.2</v>
+        <v>100.47019829</v>
       </c>
       <c r="I2" t="n">
-        <v>115.5</v>
+        <v>105.29869741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.8</v>
+        <v>100.72084618</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.4</v>
+        <v>102.69107298</v>
       </c>
       <c r="E3" t="n">
-        <v>102.7</v>
+        <v>102.67130033</v>
       </c>
       <c r="F3" t="n">
-        <v>100.7</v>
+        <v>103.74435284</v>
       </c>
       <c r="G3" t="n">
-        <v>102</v>
+        <v>101.99144355</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3</v>
+        <v>106.37251729</v>
       </c>
       <c r="I3" t="n">
-        <v>103.9</v>
+        <v>98.08437176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.8</v>
+        <v>101.72025146</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>100.1</v>
+        <v>102.05908422</v>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>101.84276535</v>
       </c>
       <c r="F4" t="n">
-        <v>102.2</v>
+        <v>101.85399935</v>
       </c>
       <c r="G4" t="n">
-        <v>102.7</v>
+        <v>100.8997213</v>
       </c>
       <c r="H4" t="n">
-        <v>110.8</v>
+        <v>108.02277072</v>
       </c>
       <c r="I4" t="n">
-        <v>106.9</v>
+        <v>90.55059866000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.2</v>
+        <v>103.46237863</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>99.8</v>
+        <v>101.26031695</v>
       </c>
       <c r="E5" t="n">
-        <v>97.5</v>
+        <v>100.69157554</v>
       </c>
       <c r="F5" t="n">
-        <v>97</v>
+        <v>101.43412393</v>
       </c>
       <c r="G5" t="n">
-        <v>99.59999999999999</v>
+        <v>101.78707476</v>
       </c>
       <c r="H5" t="n">
-        <v>100.9</v>
+        <v>106.80253677</v>
       </c>
       <c r="I5" t="n">
-        <v>103.5</v>
+        <v>105.22470452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.59999999999999</v>
+        <v>108.13014022</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>99.90000000000001</v>
+        <v>100.85191789</v>
       </c>
       <c r="E6" t="n">
-        <v>98.8</v>
+        <v>101.3597745</v>
       </c>
       <c r="F6" t="n">
-        <v>99.40000000000001</v>
+        <v>101.56027826</v>
       </c>
       <c r="G6" t="n">
-        <v>99.40000000000001</v>
+        <v>103.2557848</v>
       </c>
       <c r="H6" t="n">
-        <v>96.90000000000001</v>
+        <v>112.76847317</v>
       </c>
       <c r="I6" t="n">
-        <v>98.09999999999999</v>
+        <v>111.40319182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.55895102</v>
+        <v>96.80709182</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>100.05843779</v>
+        <v>101.20951791</v>
       </c>
       <c r="E7" t="n">
-        <v>106.31679639</v>
+        <v>95.67264287</v>
       </c>
       <c r="F7" t="n">
-        <v>105.45279234</v>
+        <v>96.87465716</v>
       </c>
       <c r="G7" t="n">
-        <v>100.566593</v>
+        <v>98.48091644</v>
       </c>
       <c r="H7" t="n">
-        <v>98.4297266</v>
+        <v>100.68911722</v>
       </c>
       <c r="I7" t="n">
-        <v>86.81450386</v>
+        <v>95.93941103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.6</v>
+        <v>99.48309458999999</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>100.5</v>
+        <v>101.75972255</v>
       </c>
       <c r="E8" t="n">
-        <v>107</v>
+        <v>97.06769489</v>
       </c>
       <c r="F8" t="n">
-        <v>102.7</v>
+        <v>98.55981747</v>
       </c>
       <c r="G8" t="n">
-        <v>101.3</v>
+        <v>99.90522863</v>
       </c>
       <c r="H8" t="n">
-        <v>88.8</v>
+        <v>103.70714584</v>
       </c>
       <c r="I8" t="n">
-        <v>95.8</v>
+        <v>100.2722562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.7</v>
+        <v>99.97623176</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>100.9</v>
+        <v>101.53475459</v>
       </c>
       <c r="E9" t="n">
-        <v>106.6</v>
+        <v>99.40735591000001</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7</v>
+        <v>100.19917225</v>
       </c>
       <c r="G9" t="n">
-        <v>103.3</v>
+        <v>99.53010347999999</v>
       </c>
       <c r="H9" t="n">
-        <v>99.7</v>
+        <v>104.97897227</v>
       </c>
       <c r="I9" t="n">
-        <v>108.7</v>
+        <v>90.22072824999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.09999999999999</v>
+        <v>100.79219299</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>100.6</v>
+        <v>100.76869466</v>
       </c>
       <c r="E10" t="n">
-        <v>98.5</v>
+        <v>99.88420277</v>
       </c>
       <c r="F10" t="n">
-        <v>102.2</v>
+        <v>101.60728537</v>
       </c>
       <c r="G10" t="n">
-        <v>100.3</v>
+        <v>98.3757518</v>
       </c>
       <c r="H10" t="n">
-        <v>105.1</v>
+        <v>94.93879816</v>
       </c>
       <c r="I10" t="n">
-        <v>100.5</v>
+        <v>85.38360853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.3</v>
+        <v>100.27491949</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>100.8</v>
+        <v>100.42429502</v>
       </c>
       <c r="E11" t="n">
-        <v>102</v>
+        <v>103.72714635</v>
       </c>
       <c r="F11" t="n">
-        <v>96.8</v>
+        <v>102.89434201</v>
       </c>
       <c r="G11" t="n">
-        <v>101.4</v>
+        <v>100.88819356</v>
       </c>
       <c r="H11" t="n">
-        <v>104.6</v>
+        <v>93.49523902999999</v>
       </c>
       <c r="I11" t="n">
-        <v>100.4</v>
+        <v>104.34599005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.2</v>
+        <v>99.55790173</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>101.2</v>
+        <v>100.58017664</v>
       </c>
       <c r="E12" t="n">
-        <v>104.7</v>
+        <v>104.83494927</v>
       </c>
       <c r="F12" t="n">
-        <v>99.2</v>
+        <v>107.49634834</v>
       </c>
       <c r="G12" t="n">
-        <v>102.5</v>
+        <v>101.95801665</v>
       </c>
       <c r="H12" t="n">
-        <v>105.1</v>
+        <v>97.69466979000001</v>
       </c>
       <c r="I12" t="n">
-        <v>98.3</v>
+        <v>107.66965227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.3</v>
+        <v>100.01189651</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>100.6</v>
+        <v>100.71822437</v>
       </c>
       <c r="E13" t="n">
-        <v>104.5</v>
+        <v>101.90764086</v>
       </c>
       <c r="F13" t="n">
-        <v>101.3</v>
+        <v>104.19856776</v>
       </c>
       <c r="G13" t="n">
-        <v>103.3</v>
+        <v>101.1991438</v>
       </c>
       <c r="H13" t="n">
-        <v>105.9</v>
+        <v>101.71159008</v>
       </c>
       <c r="I13" t="n">
-        <v>107.9</v>
+        <v>103.29555861</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111.8</v>
+        <v>98.47473569</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>100.4</v>
+        <v>100.41317071</v>
       </c>
       <c r="E14" t="n">
-        <v>106</v>
+        <v>99.41556833</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5</v>
+        <v>96.23202639</v>
       </c>
       <c r="G14" t="n">
-        <v>107.1</v>
+        <v>99.82453254000001</v>
       </c>
       <c r="H14" t="n">
-        <v>109.2</v>
+        <v>105.69058516</v>
       </c>
       <c r="I14" t="n">
-        <v>137.3</v>
+        <v>96.59419232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.2</v>
+        <v>99.25520448</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>100.4</v>
+        <v>100.17657467</v>
       </c>
       <c r="E15" t="n">
-        <v>97.90000000000001</v>
+        <v>97.35401967999999</v>
       </c>
       <c r="F15" t="n">
-        <v>95.09999999999999</v>
+        <v>96.04829092999999</v>
       </c>
       <c r="G15" t="n">
-        <v>98.2</v>
+        <v>99.2080763</v>
       </c>
       <c r="H15" t="n">
-        <v>96.90000000000001</v>
+        <v>106.78466052</v>
       </c>
       <c r="I15" t="n">
-        <v>87</v>
+        <v>94.00228941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.12333735</v>
+        <v>100.87783585</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.4545487</v>
+        <v>100.13217707</v>
       </c>
       <c r="E16" t="n">
-        <v>100.25737664</v>
+        <v>99.17176913</v>
       </c>
       <c r="F16" t="n">
-        <v>99.50814097</v>
+        <v>98.28969463999999</v>
       </c>
       <c r="G16" t="n">
-        <v>99.90993810000001</v>
+        <v>101.16995652</v>
       </c>
       <c r="H16" t="n">
-        <v>104.13597207</v>
+        <v>102.69392237</v>
       </c>
       <c r="I16" t="n">
-        <v>90.82240367</v>
+        <v>113.90194011</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.5</v>
+        <v>103.85379144</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>101.2</v>
+        <v>101.11489787</v>
       </c>
       <c r="E17" t="n">
-        <v>99</v>
+        <v>101.30443696</v>
       </c>
       <c r="F17" t="n">
-        <v>103.6</v>
+        <v>102.28434092</v>
       </c>
       <c r="G17" t="n">
-        <v>98.7</v>
+        <v>102.77944001</v>
       </c>
       <c r="H17" t="n">
-        <v>96.59999999999999</v>
+        <v>107.48110389</v>
       </c>
       <c r="I17" t="n">
-        <v>84.3</v>
+        <v>114.39309397</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.6</v>
+        <v>106.18295881</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>100.5</v>
+        <v>100.874323</v>
       </c>
       <c r="E18" t="n">
-        <v>98.8</v>
+        <v>103.71096043</v>
       </c>
       <c r="F18" t="n">
-        <v>102.4</v>
+        <v>100.8257017</v>
       </c>
       <c r="G18" t="n">
-        <v>99.2</v>
+        <v>103.7088779</v>
       </c>
       <c r="H18" t="n">
-        <v>92.09999999999999</v>
+        <v>108.73748559</v>
       </c>
       <c r="I18" t="n">
-        <v>94.09999999999999</v>
+        <v>115.22462636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.3</v>
+        <v>97.7</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="E19" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="F19" t="n">
+        <v>93</v>
+      </c>
+      <c r="G19" t="n">
+        <v>99</v>
+      </c>
+      <c r="H19" t="n">
         <v>99.3</v>
       </c>
-      <c r="G19" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>94.3</v>
-      </c>
       <c r="I19" t="n">
-        <v>104.3</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100.7</v>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>103.7</v>
+        <v>98.7</v>
       </c>
       <c r="G20" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>103.9</v>
+      </c>
       <c r="I20" t="n">
-        <v>99.90000000000001</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="E21" t="n">
-        <v>98.90000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="F21" t="n">
         <v>104.6</v>
@@ -1041,4563 +1049,4157 @@
         <v>99.7</v>
       </c>
       <c r="H21" t="n">
-        <v>101.2</v>
+        <v>97</v>
       </c>
       <c r="I21" t="n">
-        <v>101.1</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2</v>
+        <v>102</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="E22" t="n">
-        <v>96.8</v>
+        <v>106.3</v>
       </c>
       <c r="F22" t="n">
-        <v>96.09999999999999</v>
+        <v>104.2</v>
       </c>
       <c r="G22" t="n">
-        <v>99.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="H22" t="n">
-        <v>100.9</v>
+        <v>86.5</v>
       </c>
       <c r="I22" t="n">
-        <v>103.9</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98</v>
+        <v>101.19654119</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>99.8</v>
+        <v>100.3799492</v>
       </c>
       <c r="E23" t="n">
-        <v>97.5</v>
+        <v>104.74518408</v>
       </c>
       <c r="F23" t="n">
-        <v>95.8</v>
+        <v>100.7965002</v>
       </c>
       <c r="G23" t="n">
-        <v>99</v>
+        <v>101.17450571</v>
       </c>
       <c r="H23" t="n">
-        <v>103.4</v>
+        <v>89.82541087</v>
       </c>
       <c r="I23" t="n">
-        <v>98.2</v>
+        <v>104.05986284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.49282984</v>
+        <v>99.31476345999999</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>99.84128973</v>
+        <v>100.45631572</v>
       </c>
       <c r="E24" t="n">
-        <v>101.59065204</v>
+        <v>101.49173111</v>
       </c>
       <c r="F24" t="n">
-        <v>98.2879899</v>
+        <v>104.4248396</v>
       </c>
       <c r="G24" t="n">
-        <v>100.77093839</v>
+        <v>100.58409459</v>
       </c>
       <c r="H24" t="n">
-        <v>102.28902019</v>
+        <v>95.85580876</v>
       </c>
       <c r="I24" t="n">
-        <v>105.88566939</v>
+        <v>99.80670593000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.33174319</v>
+        <v>99.44198160000001</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>100.19682729</v>
+        <v>100.46386338</v>
       </c>
       <c r="E25" t="n">
-        <v>102.57148434</v>
+        <v>101.24954522</v>
       </c>
       <c r="F25" t="n">
-        <v>100.70692726</v>
+        <v>102.43985123</v>
       </c>
       <c r="G25" t="n">
-        <v>103.34958102</v>
+        <v>101.13707541</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8561655</v>
+        <v>103.09753927</v>
       </c>
       <c r="I25" t="n">
-        <v>122.37851309</v>
+        <v>105.19142332</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.2</v>
+        <v>98.64823380999999</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>101</v>
+        <v>100.47632384</v>
       </c>
       <c r="E26" t="n">
-        <v>99.40000000000001</v>
+        <v>100.78818792</v>
       </c>
       <c r="F26" t="n">
-        <v>99.3</v>
+        <v>96.09954516000001</v>
       </c>
       <c r="G26" t="n">
-        <v>100.8</v>
+        <v>99.1703675</v>
       </c>
       <c r="H26" t="n">
-        <v>104</v>
+        <v>102.38285176</v>
       </c>
       <c r="I26" t="n">
-        <v>104</v>
+        <v>87.91176494</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.23944383</v>
+        <v>99.49156571</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>100.43600564</v>
+        <v>100.21467115</v>
       </c>
       <c r="E27" t="n">
-        <v>96.66729107</v>
+        <v>100.35496559</v>
       </c>
       <c r="F27" t="n">
-        <v>102.40428279</v>
+        <v>99.56942931</v>
       </c>
       <c r="G27" t="n">
-        <v>99.23907712</v>
+        <v>100.35140171</v>
       </c>
       <c r="H27" t="n">
-        <v>105.84576695</v>
+        <v>98.87287463</v>
       </c>
       <c r="I27" t="n">
-        <v>95.09199778</v>
+        <v>103.46413594</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.9447053</v>
+        <v>102.04538843</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>100.75535106</v>
+        <v>100.3821197</v>
       </c>
       <c r="E28" t="n">
-        <v>96.8231179</v>
+        <v>102.37074491</v>
       </c>
       <c r="F28" t="n">
-        <v>101.77160183</v>
+        <v>103.09299119</v>
       </c>
       <c r="G28" t="n">
-        <v>99.41741605999999</v>
+        <v>102.43849723</v>
       </c>
       <c r="H28" t="n">
-        <v>109.29039745</v>
+        <v>100.77148184</v>
       </c>
       <c r="I28" t="n">
-        <v>92.87178034</v>
+        <v>117.49722526</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.21334877</v>
+        <v>107.15523121</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>100.40579628</v>
+        <v>100.32860904</v>
       </c>
       <c r="E29" t="n">
-        <v>101.44778279</v>
+        <v>103.21222421</v>
       </c>
       <c r="F29" t="n">
-        <v>97.83009980999999</v>
+        <v>99.23570119999999</v>
       </c>
       <c r="G29" t="n">
-        <v>99.78159787</v>
+        <v>104.16604217</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69493769</v>
+        <v>105.56509665</v>
       </c>
       <c r="I29" t="n">
-        <v>97.7457694</v>
+        <v>126.13715828</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.58033163</v>
+        <v>100.79951221</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>100.40517751</v>
+        <v>100.19465931</v>
       </c>
       <c r="E30" t="n">
-        <v>103.5100632</v>
+        <v>98.64981177999999</v>
       </c>
       <c r="F30" t="n">
-        <v>105.41237809</v>
+        <v>91.91950097</v>
       </c>
       <c r="G30" t="n">
-        <v>101.32095032</v>
+        <v>99.66478537</v>
       </c>
       <c r="H30" t="n">
-        <v>94.44025532000001</v>
+        <v>99.79162949000001</v>
       </c>
       <c r="I30" t="n">
-        <v>110.41559123</v>
+        <v>99.70097398999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.86832584</v>
+        <v>101.29959467</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>100.61497278</v>
+        <v>100.19026646</v>
       </c>
       <c r="E31" t="n">
-        <v>101.90841006</v>
+        <v>97.52644110999999</v>
       </c>
       <c r="F31" t="n">
-        <v>103.94632486</v>
+        <v>98.01823636</v>
       </c>
       <c r="G31" t="n">
-        <v>100.68401604</v>
+        <v>100.21290241</v>
       </c>
       <c r="H31" t="n">
-        <v>97.14877404000001</v>
+        <v>99.18956642000001</v>
       </c>
       <c r="I31" t="n">
-        <v>104.37975384</v>
+        <v>106.1422776</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.75836867</v>
+        <v>100.79251377</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>100.47238078</v>
+        <v>100.15204977</v>
       </c>
       <c r="E32" t="n">
-        <v>99.78102920000001</v>
+        <v>97.71552318000001</v>
       </c>
       <c r="F32" t="n">
-        <v>97.03793714</v>
+        <v>98.57222775</v>
       </c>
       <c r="G32" t="n">
-        <v>99.20190266</v>
+        <v>99.07947722</v>
       </c>
       <c r="H32" t="n">
-        <v>96.60981765</v>
+        <v>100.08919954</v>
       </c>
       <c r="I32" t="n">
-        <v>94.88795043</v>
+        <v>94.18359182</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.08716075</v>
+        <v>100.40015419</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>100.54961035</v>
+        <v>100.16170054</v>
       </c>
       <c r="E33" t="n">
-        <v>99.76924198</v>
+        <v>98.63933262</v>
       </c>
       <c r="F33" t="n">
-        <v>97.4339986</v>
+        <v>100.29293952</v>
       </c>
       <c r="G33" t="n">
-        <v>100.50045291</v>
+        <v>99.22149521</v>
       </c>
       <c r="H33" t="n">
-        <v>97.76357874</v>
+        <v>99.76180218</v>
       </c>
       <c r="I33" t="n">
-        <v>105.93248613</v>
+        <v>93.07295043000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.6049967</v>
+        <v>99.5150975</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>101.32311771</v>
+        <v>100.11586042</v>
       </c>
       <c r="E34" t="n">
-        <v>101.54463359</v>
+        <v>99.39914727999999</v>
       </c>
       <c r="F34" t="n">
-        <v>100.71627182</v>
+        <v>111.38609927</v>
       </c>
       <c r="G34" t="n">
-        <v>102.87310149</v>
+        <v>98.38445036</v>
       </c>
       <c r="H34" t="n">
-        <v>102.90233964</v>
+        <v>93.69532099</v>
       </c>
       <c r="I34" t="n">
-        <v>116.4492398</v>
+        <v>84.80822118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.46237863</v>
+        <v>99.40763951</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>101.26031695</v>
+        <v>100.17636307</v>
       </c>
       <c r="E35" t="n">
-        <v>100.69157554</v>
+        <v>100.01577654</v>
       </c>
       <c r="F35" t="n">
-        <v>101.43412393</v>
+        <v>97.69065053</v>
       </c>
       <c r="G35" t="n">
-        <v>101.78707476</v>
+        <v>99.87580469</v>
       </c>
       <c r="H35" t="n">
-        <v>106.80253677</v>
+        <v>97.08401464000001</v>
       </c>
       <c r="I35" t="n">
-        <v>105.22470452</v>
+        <v>100.24872909</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>108.13014022</v>
+        <v>98.33446563</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>100.85191789</v>
+        <v>100.6111046</v>
       </c>
       <c r="E36" t="n">
-        <v>101.3597745</v>
+        <v>101.04947643</v>
       </c>
       <c r="F36" t="n">
-        <v>101.56027826</v>
+        <v>108.16585843</v>
       </c>
       <c r="G36" t="n">
-        <v>103.2557848</v>
+        <v>101.51158475</v>
       </c>
       <c r="H36" t="n">
-        <v>112.76847317</v>
+        <v>96.74850385000001</v>
       </c>
       <c r="I36" t="n">
-        <v>111.40319182</v>
+        <v>114.34757076</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.80709182</v>
+        <v>98.37169417</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>101.20951791</v>
+        <v>101.01168293</v>
       </c>
       <c r="E37" t="n">
-        <v>95.67264287</v>
+        <v>101.86370066</v>
       </c>
       <c r="F37" t="n">
-        <v>96.87465716</v>
+        <v>105.90035739</v>
       </c>
       <c r="G37" t="n">
-        <v>98.48091644</v>
+        <v>100.23410053</v>
       </c>
       <c r="H37" t="n">
-        <v>100.68911722</v>
+        <v>100.7445622</v>
       </c>
       <c r="I37" t="n">
-        <v>95.93941103</v>
+        <v>94.42726199000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.48309458999999</v>
+        <v>99.06580911</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>101.75972255</v>
+        <v>100.30900801</v>
       </c>
       <c r="E38" t="n">
-        <v>97.06769489</v>
+        <v>100.03189403</v>
       </c>
       <c r="F38" t="n">
-        <v>98.55981747</v>
+        <v>94.11975964</v>
       </c>
       <c r="G38" t="n">
-        <v>99.90522863</v>
+        <v>99.59084141</v>
       </c>
       <c r="H38" t="n">
-        <v>103.70714584</v>
+        <v>99.05257829</v>
       </c>
       <c r="I38" t="n">
-        <v>100.2722562</v>
+        <v>97.22314745</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.97623176</v>
+        <v>99.60380809</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>101.53475459</v>
+        <v>100.36080005</v>
       </c>
       <c r="E39" t="n">
-        <v>99.40735591000001</v>
+        <v>100.04481152</v>
       </c>
       <c r="F39" t="n">
-        <v>100.19917225</v>
+        <v>98.64614947</v>
       </c>
       <c r="G39" t="n">
-        <v>99.53010347999999</v>
+        <v>99.77947999</v>
       </c>
       <c r="H39" t="n">
-        <v>104.97897227</v>
+        <v>100.51524519</v>
       </c>
       <c r="I39" t="n">
-        <v>90.22072824999999</v>
+        <v>96.22632633000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.79219299</v>
+        <v>101.10405759</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>100.76869466</v>
+        <v>100.25627106</v>
       </c>
       <c r="E40" t="n">
-        <v>99.88420277</v>
+        <v>100.48586137</v>
       </c>
       <c r="F40" t="n">
-        <v>101.60728537</v>
+        <v>100.57274067</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3757518</v>
+        <v>100.61274576</v>
       </c>
       <c r="H40" t="n">
-        <v>94.93879816</v>
+        <v>105.2757586</v>
       </c>
       <c r="I40" t="n">
-        <v>85.38360853</v>
+        <v>98.49574143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.27491949</v>
+        <v>103.5154844</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>100.42429502</v>
+        <v>100.88405091</v>
       </c>
       <c r="E41" t="n">
-        <v>103.72714635</v>
+        <v>103.24343775</v>
       </c>
       <c r="F41" t="n">
-        <v>102.89434201</v>
+        <v>101.36162437</v>
       </c>
       <c r="G41" t="n">
-        <v>100.88819356</v>
+        <v>102.80309558</v>
       </c>
       <c r="H41" t="n">
-        <v>93.49523902999999</v>
+        <v>104.32402814</v>
       </c>
       <c r="I41" t="n">
-        <v>104.34599005</v>
+        <v>112.6943663</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.55790173</v>
+        <v>105.93784643</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>100.58017664</v>
+        <v>100.60073865</v>
       </c>
       <c r="E42" t="n">
-        <v>104.83494927</v>
+        <v>102.37586797</v>
       </c>
       <c r="F42" t="n">
-        <v>107.49634834</v>
+        <v>99.09043022</v>
       </c>
       <c r="G42" t="n">
-        <v>101.95801665</v>
+        <v>102.67094883</v>
       </c>
       <c r="H42" t="n">
-        <v>97.69466979000001</v>
+        <v>110.99937092</v>
       </c>
       <c r="I42" t="n">
-        <v>107.66965227</v>
+        <v>106.94824937</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.01189651</v>
+        <v>95.48098406</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>100.71822437</v>
+        <v>100.28052631</v>
       </c>
       <c r="E43" t="n">
-        <v>101.90764086</v>
+        <v>95.33336143</v>
       </c>
       <c r="F43" t="n">
-        <v>104.19856776</v>
+        <v>93.28925934</v>
       </c>
       <c r="G43" t="n">
-        <v>101.1991438</v>
+        <v>97.08356606</v>
       </c>
       <c r="H43" t="n">
-        <v>101.71159008</v>
+        <v>100.45299214</v>
       </c>
       <c r="I43" t="n">
-        <v>103.29555861</v>
+        <v>86.55474176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.98334803</v>
+        <v>101.20728938</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>100.71770112</v>
+        <v>100.15432853</v>
       </c>
       <c r="E44" t="n">
-        <v>101.081751</v>
+        <v>96.37812651</v>
       </c>
       <c r="F44" t="n">
-        <v>97.55633757</v>
+        <v>97.15325980999999</v>
       </c>
       <c r="G44" t="n">
-        <v>101.0502515</v>
+        <v>100.40137716</v>
       </c>
       <c r="H44" t="n">
-        <v>100.47019829</v>
+        <v>100.32401281</v>
       </c>
       <c r="I44" t="n">
-        <v>105.29869741</v>
+        <v>111.19401853</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.72084618</v>
+        <v>100.6551538</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>102.69107298</v>
+        <v>100.11732075</v>
       </c>
       <c r="E45" t="n">
-        <v>102.67130033</v>
+        <v>98.75276922</v>
       </c>
       <c r="F45" t="n">
-        <v>103.74435284</v>
+        <v>99.61763126</v>
       </c>
       <c r="G45" t="n">
-        <v>101.99144355</v>
+        <v>98.43725053</v>
       </c>
       <c r="H45" t="n">
-        <v>106.37251729</v>
+        <v>100.91023545</v>
       </c>
       <c r="I45" t="n">
-        <v>98.08437176</v>
+        <v>86.23449567</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.72025146</v>
+        <v>100.32347818</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>102.05908422</v>
+        <v>100.11352915</v>
       </c>
       <c r="E46" t="n">
-        <v>101.84276535</v>
+        <v>102.48535359</v>
       </c>
       <c r="F46" t="n">
-        <v>101.85399935</v>
+        <v>100.23335462</v>
       </c>
       <c r="G46" t="n">
-        <v>100.8997213</v>
+        <v>100.00577213</v>
       </c>
       <c r="H46" t="n">
-        <v>108.02277072</v>
+        <v>97.99139052</v>
       </c>
       <c r="I46" t="n">
-        <v>90.55059866000001</v>
+        <v>94.79469769000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.85379144</v>
+        <v>99.41756004</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>101.11489787</v>
+        <v>100.16263095</v>
       </c>
       <c r="E47" t="n">
-        <v>101.30443696</v>
+        <v>101.07083176</v>
       </c>
       <c r="F47" t="n">
-        <v>102.28434092</v>
+        <v>98.61915088000001</v>
       </c>
       <c r="G47" t="n">
-        <v>102.77944001</v>
+        <v>99.96119027</v>
       </c>
       <c r="H47" t="n">
-        <v>107.48110389</v>
+        <v>93.48929398</v>
       </c>
       <c r="I47" t="n">
-        <v>114.39309397</v>
+        <v>102.18161718</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>106.18295881</v>
+        <v>99.51960459</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.874323</v>
+        <v>100.23213368</v>
       </c>
       <c r="E48" t="n">
-        <v>103.71096043</v>
+        <v>102.28299252</v>
       </c>
       <c r="F48" t="n">
-        <v>100.8257017</v>
+        <v>107.06070722</v>
       </c>
       <c r="G48" t="n">
-        <v>103.7088779</v>
+        <v>101.23379199</v>
       </c>
       <c r="H48" t="n">
-        <v>108.73748559</v>
+        <v>96.98554346</v>
       </c>
       <c r="I48" t="n">
-        <v>115.22462636</v>
+        <v>107.60758468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>97.7</v>
+        <v>99.88166943</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>101.2</v>
+        <v>100.29932433</v>
       </c>
       <c r="E49" t="n">
-        <v>98.90000000000001</v>
+        <v>101.35188035</v>
       </c>
       <c r="F49" t="n">
-        <v>93</v>
+        <v>107.05591892</v>
       </c>
       <c r="G49" t="n">
-        <v>99</v>
+        <v>101.54561922</v>
       </c>
       <c r="H49" t="n">
-        <v>99.3</v>
+        <v>105.38663663</v>
       </c>
       <c r="I49" t="n">
-        <v>93.8</v>
+        <v>106.74371441</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.7</v>
+        <v>99.01743786999999</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>100.6</v>
+        <v>100.32621701</v>
       </c>
       <c r="E50" t="n">
-        <v>100.5</v>
+        <v>99.99118747</v>
       </c>
       <c r="F50" t="n">
-        <v>98.7</v>
+        <v>97.00947908000001</v>
       </c>
       <c r="G50" t="n">
-        <v>99.59999999999999</v>
+        <v>99.75898447</v>
       </c>
       <c r="H50" t="n">
-        <v>103.9</v>
+        <v>97.77933858999999</v>
       </c>
       <c r="I50" t="n">
-        <v>88.8</v>
+        <v>99.51837523</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.5</v>
+        <v>99.0326644</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>100.5</v>
+        <v>100.11818632</v>
       </c>
       <c r="E51" t="n">
-        <v>101.6</v>
+        <v>99.41480011</v>
       </c>
       <c r="F51" t="n">
-        <v>104.6</v>
+        <v>98.68793015</v>
       </c>
       <c r="G51" t="n">
-        <v>99.7</v>
+        <v>99.59748328000001</v>
       </c>
       <c r="H51" t="n">
-        <v>97</v>
+        <v>99.4637207</v>
       </c>
       <c r="I51" t="n">
-        <v>90.7</v>
+        <v>98.35896011</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>102</v>
+        <v>100.98468355</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>100.3</v>
+        <v>100.08158842</v>
       </c>
       <c r="E52" t="n">
-        <v>106.3</v>
+        <v>99.75194264</v>
       </c>
       <c r="F52" t="n">
-        <v>104.2</v>
+        <v>98.4460799</v>
       </c>
       <c r="G52" t="n">
-        <v>100.9</v>
+        <v>101.15145484</v>
       </c>
       <c r="H52" t="n">
-        <v>86.5</v>
+        <v>101.90954217</v>
       </c>
       <c r="I52" t="n">
-        <v>99.2</v>
+        <v>111.33597272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>101.19654119</v>
+        <v>104.31464704</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>100.3799492</v>
+        <v>100.21090122</v>
       </c>
       <c r="E53" t="n">
-        <v>104.74518408</v>
+        <v>100.01225364</v>
       </c>
       <c r="F53" t="n">
-        <v>100.7965002</v>
+        <v>101.66920436</v>
       </c>
       <c r="G53" t="n">
-        <v>101.17450571</v>
+        <v>102.42630128</v>
       </c>
       <c r="H53" t="n">
-        <v>89.82541087</v>
+        <v>111.02548168</v>
       </c>
       <c r="I53" t="n">
-        <v>104.05986284</v>
+        <v>112.14299916</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.31476345999999</v>
+        <v>104.36170527</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>100.45631572</v>
+        <v>100.22842825</v>
       </c>
       <c r="E54" t="n">
-        <v>101.49173111</v>
+        <v>98.98064386</v>
       </c>
       <c r="F54" t="n">
-        <v>104.4248396</v>
+        <v>96.9717443</v>
       </c>
       <c r="G54" t="n">
-        <v>100.58409459</v>
+        <v>101.65976115</v>
       </c>
       <c r="H54" t="n">
-        <v>95.85580876</v>
+        <v>108.04709103</v>
       </c>
       <c r="I54" t="n">
-        <v>99.80670593000001</v>
+        <v>108.21239288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.44198160000001</v>
+        <v>98.14973589</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>100.46386338</v>
+        <v>100.24211455</v>
       </c>
       <c r="E55" t="n">
-        <v>101.24954522</v>
+        <v>96.47588007</v>
       </c>
       <c r="F55" t="n">
-        <v>102.43985123</v>
+        <v>99.45565523</v>
       </c>
       <c r="G55" t="n">
-        <v>101.13707541</v>
+        <v>98.42809155</v>
       </c>
       <c r="H55" t="n">
-        <v>103.09753927</v>
+        <v>98.39637034</v>
       </c>
       <c r="I55" t="n">
-        <v>105.19142332</v>
+        <v>94.62279995</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.47473569</v>
+        <v>99.40890639</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>100.41317071</v>
+        <v>100.20654057</v>
       </c>
       <c r="E56" t="n">
-        <v>99.41556833</v>
+        <v>97.49479717</v>
       </c>
       <c r="F56" t="n">
-        <v>96.23202639</v>
+        <v>103.54634771</v>
       </c>
       <c r="G56" t="n">
-        <v>99.82453254000001</v>
+        <v>98.67813218000001</v>
       </c>
       <c r="H56" t="n">
-        <v>105.69058516</v>
+        <v>101.45334397</v>
       </c>
       <c r="I56" t="n">
-        <v>96.59419232</v>
+        <v>90.69262943</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.25520448</v>
+        <v>99.93176112</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>100.17657467</v>
+        <v>100.3349565</v>
       </c>
       <c r="E57" t="n">
-        <v>97.35401967999999</v>
+        <v>102.66682584</v>
       </c>
       <c r="F57" t="n">
-        <v>96.04829092999999</v>
+        <v>109.51080605</v>
       </c>
       <c r="G57" t="n">
-        <v>99.2080763</v>
+        <v>100.18480084</v>
       </c>
       <c r="H57" t="n">
-        <v>106.78466052</v>
+        <v>102.11763715</v>
       </c>
       <c r="I57" t="n">
-        <v>94.00228941</v>
+        <v>91.34411849999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.87783585</v>
+        <v>99.42493234</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>100.13217707</v>
+        <v>100.35048903</v>
       </c>
       <c r="E58" t="n">
-        <v>99.17176913</v>
+        <v>101.17023372</v>
       </c>
       <c r="F58" t="n">
-        <v>98.28969463999999</v>
+        <v>96.38019195</v>
       </c>
       <c r="G58" t="n">
-        <v>101.16995652</v>
+        <v>99.60329541</v>
       </c>
       <c r="H58" t="n">
-        <v>102.69392237</v>
+        <v>97.8211654</v>
       </c>
       <c r="I58" t="n">
-        <v>113.90194011</v>
+        <v>95.47785415</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>107.15523121</v>
+        <v>99.31367796000001</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>100.32860904</v>
+        <v>100.26752601</v>
       </c>
       <c r="E59" t="n">
-        <v>103.21222421</v>
+        <v>100.25765047</v>
       </c>
       <c r="F59" t="n">
-        <v>99.23570119999999</v>
+        <v>104.2100171</v>
       </c>
       <c r="G59" t="n">
-        <v>104.16604217</v>
+        <v>99.87920090999999</v>
       </c>
       <c r="H59" t="n">
-        <v>105.56509665</v>
+        <v>93.74383827</v>
       </c>
       <c r="I59" t="n">
-        <v>126.13715828</v>
+        <v>102.32025418</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.79951221</v>
+        <v>99.42854028000001</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>100.19465931</v>
+        <v>100.27396482</v>
       </c>
       <c r="E60" t="n">
-        <v>98.64981177999999</v>
+        <v>102.29434579</v>
       </c>
       <c r="F60" t="n">
-        <v>91.91950097</v>
+        <v>106.32389016</v>
       </c>
       <c r="G60" t="n">
-        <v>99.66478537</v>
+        <v>100.69408357</v>
       </c>
       <c r="H60" t="n">
-        <v>99.79162949000001</v>
+        <v>97.85351912</v>
       </c>
       <c r="I60" t="n">
-        <v>99.70097398999999</v>
+        <v>101.82751087</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>101.29959467</v>
+        <v>99.27118416</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>100.19026646</v>
+        <v>100.35084595</v>
       </c>
       <c r="E61" t="n">
-        <v>97.52644110999999</v>
+        <v>101.4304403</v>
       </c>
       <c r="F61" t="n">
-        <v>98.01823636</v>
+        <v>101.86326494</v>
       </c>
       <c r="G61" t="n">
-        <v>100.21290241</v>
+        <v>100.83321013</v>
       </c>
       <c r="H61" t="n">
-        <v>99.18956642000001</v>
+        <v>101.48455906</v>
       </c>
       <c r="I61" t="n">
-        <v>106.1422776</v>
+        <v>103.91481801</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.79251377</v>
+        <v>99.22374167</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>100.15204977</v>
+        <v>100.12629023</v>
       </c>
       <c r="E62" t="n">
-        <v>97.71552318000001</v>
+        <v>99.07643502000001</v>
       </c>
       <c r="F62" t="n">
-        <v>98.57222775</v>
+        <v>93.12107996</v>
       </c>
       <c r="G62" t="n">
-        <v>99.07947722</v>
+        <v>98.99944094</v>
       </c>
       <c r="H62" t="n">
-        <v>100.08919954</v>
+        <v>99.50789476999999</v>
       </c>
       <c r="I62" t="n">
-        <v>94.18359182</v>
+        <v>94.37302291</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.40015419</v>
+        <v>99.21360817</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>100.16170054</v>
+        <v>100.03641458</v>
       </c>
       <c r="E63" t="n">
-        <v>98.63933262</v>
+        <v>98.55201778</v>
       </c>
       <c r="F63" t="n">
-        <v>100.29293952</v>
+        <v>98.93773883999999</v>
       </c>
       <c r="G63" t="n">
-        <v>99.22149521</v>
+        <v>99.96942772</v>
       </c>
       <c r="H63" t="n">
-        <v>99.76180218</v>
+        <v>101.56070831</v>
       </c>
       <c r="I63" t="n">
-        <v>93.07295043000001</v>
+        <v>102.81077978</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.5150975</v>
+        <v>101.25517776</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.11586042</v>
+        <v>100.10145084</v>
       </c>
       <c r="E64" t="n">
-        <v>99.39914727999999</v>
+        <v>99.70525633</v>
       </c>
       <c r="F64" t="n">
-        <v>111.38609927</v>
+        <v>101.33961561</v>
       </c>
       <c r="G64" t="n">
-        <v>98.38445036</v>
+        <v>101.53095379</v>
       </c>
       <c r="H64" t="n">
-        <v>93.69532099</v>
+        <v>102.28727636</v>
       </c>
       <c r="I64" t="n">
-        <v>84.80822118</v>
+        <v>113.71774921</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>99.40763951</v>
+        <v>102.1887569</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>100.17636307</v>
+        <v>100.08352617</v>
       </c>
       <c r="E65" t="n">
-        <v>100.01577654</v>
+        <v>99.42412552</v>
       </c>
       <c r="F65" t="n">
-        <v>97.69065053</v>
+        <v>96.62890179999999</v>
       </c>
       <c r="G65" t="n">
-        <v>99.87580469</v>
+        <v>100.68647034</v>
       </c>
       <c r="H65" t="n">
-        <v>97.08401464000001</v>
+        <v>103.88475428</v>
       </c>
       <c r="I65" t="n">
-        <v>100.24872909</v>
+        <v>103.97278901</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>98.33446563</v>
+        <v>106.13774536</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>100.6111046</v>
+        <v>100.17900611</v>
       </c>
       <c r="E66" t="n">
-        <v>101.04947643</v>
+        <v>101.18383383</v>
       </c>
       <c r="F66" t="n">
-        <v>108.16585843</v>
+        <v>99.6800961</v>
       </c>
       <c r="G66" t="n">
-        <v>101.51158475</v>
+        <v>102.92306298</v>
       </c>
       <c r="H66" t="n">
-        <v>96.74850385000001</v>
+        <v>108.89662293</v>
       </c>
       <c r="I66" t="n">
-        <v>114.34757076</v>
+        <v>113.61332371</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.37169417</v>
+        <v>97.74822781</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>101.01168293</v>
+        <v>100.11621242</v>
       </c>
       <c r="E67" t="n">
-        <v>101.86370066</v>
+        <v>98.18102894</v>
       </c>
       <c r="F67" t="n">
-        <v>105.90035739</v>
+        <v>94.32323907</v>
       </c>
       <c r="G67" t="n">
-        <v>100.23410053</v>
+        <v>98.39660436</v>
       </c>
       <c r="H67" t="n">
-        <v>100.7445622</v>
+        <v>100.8603786</v>
       </c>
       <c r="I67" t="n">
-        <v>94.42726199000001</v>
+        <v>91.08462796000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.64823380999999</v>
+        <v>98.91296176</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>100.47632384</v>
+        <v>100.15785172</v>
       </c>
       <c r="E68" t="n">
-        <v>100.78818792</v>
+        <v>99.21458305</v>
       </c>
       <c r="F68" t="n">
-        <v>96.09954516000001</v>
+        <v>94.38708886000001</v>
       </c>
       <c r="G68" t="n">
-        <v>99.1703675</v>
+        <v>99.0624162</v>
       </c>
       <c r="H68" t="n">
-        <v>102.38285176</v>
+        <v>96.54660527</v>
       </c>
       <c r="I68" t="n">
-        <v>87.91176494</v>
+        <v>96.84525526</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.49156571</v>
+        <v>99.68841265</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>100.21467115</v>
+        <v>100.10755036</v>
       </c>
       <c r="E69" t="n">
-        <v>100.35496559</v>
+        <v>100.80025657</v>
       </c>
       <c r="F69" t="n">
-        <v>99.56942931</v>
+        <v>98.78431079000001</v>
       </c>
       <c r="G69" t="n">
-        <v>100.35140171</v>
+        <v>99.07994604</v>
       </c>
       <c r="H69" t="n">
-        <v>98.87287463</v>
+        <v>97.30928135000001</v>
       </c>
       <c r="I69" t="n">
-        <v>103.46413594</v>
+        <v>90.75797358</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>102.04538843</v>
+        <v>100.45956668</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>100.3821197</v>
+        <v>99.9819794</v>
       </c>
       <c r="E70" t="n">
-        <v>102.37074491</v>
+        <v>101.63983943</v>
       </c>
       <c r="F70" t="n">
-        <v>103.09299119</v>
+        <v>98.42985602</v>
       </c>
       <c r="G70" t="n">
-        <v>102.43849723</v>
+        <v>99.85412531999999</v>
       </c>
       <c r="H70" t="n">
-        <v>100.77148184</v>
+        <v>92.24057119</v>
       </c>
       <c r="I70" t="n">
-        <v>117.49722526</v>
+        <v>99.86874392999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>103.5154844</v>
+        <v>99.94617727000001</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>100.88405091</v>
+        <v>100.13557997</v>
       </c>
       <c r="E71" t="n">
-        <v>103.24343775</v>
+        <v>104.20642902</v>
       </c>
       <c r="F71" t="n">
-        <v>101.36162437</v>
+        <v>100.71221183</v>
       </c>
       <c r="G71" t="n">
-        <v>102.80309558</v>
+        <v>100.73517555</v>
       </c>
       <c r="H71" t="n">
-        <v>104.32402814</v>
+        <v>94.10875584999999</v>
       </c>
       <c r="I71" t="n">
-        <v>112.6943663</v>
+        <v>101.44183092</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>105.93784643</v>
+        <v>99.21819975</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>100.60073865</v>
+        <v>100.08812331</v>
       </c>
       <c r="E72" t="n">
-        <v>102.37586797</v>
+        <v>103.83558916</v>
       </c>
       <c r="F72" t="n">
-        <v>99.09043022</v>
+        <v>110.19405994</v>
       </c>
       <c r="G72" t="n">
-        <v>102.67094883</v>
+        <v>101.62516803</v>
       </c>
       <c r="H72" t="n">
-        <v>110.99937092</v>
+        <v>98.22701696999999</v>
       </c>
       <c r="I72" t="n">
-        <v>106.94824937</v>
+        <v>106.82198658</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>95.48098406</v>
+        <v>98.78712268</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>100.28052631</v>
+        <v>100.03064008</v>
       </c>
       <c r="E73" t="n">
-        <v>95.33336143</v>
+        <v>100.40058384</v>
       </c>
       <c r="F73" t="n">
-        <v>93.28925934</v>
+        <v>102.92528175</v>
       </c>
       <c r="G73" t="n">
-        <v>97.08356606</v>
+        <v>99.90578187</v>
       </c>
       <c r="H73" t="n">
-        <v>100.45299214</v>
+        <v>98.54981836</v>
       </c>
       <c r="I73" t="n">
-        <v>86.55474176</v>
+        <v>98.96204219000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>101.20728938</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>98.17866281000001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98.28164254000001</v>
+      </c>
       <c r="D74" t="n">
-        <v>100.15432853</v>
-      </c>
-      <c r="E74" t="n">
-        <v>96.37812651</v>
-      </c>
+        <v>100.1162286</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>97.15325980999999</v>
+        <v>95.98393984000001</v>
       </c>
       <c r="G74" t="n">
-        <v>100.40137716</v>
+        <v>99</v>
       </c>
       <c r="H74" t="n">
-        <v>100.32401281</v>
+        <v>98.3165838</v>
       </c>
       <c r="I74" t="n">
-        <v>111.19401853</v>
+        <v>99.09153856</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.6551538</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>99.26923174</v>
+      </c>
+      <c r="C75" t="n">
+        <v>98.7888165</v>
+      </c>
       <c r="D75" t="n">
-        <v>100.11732075</v>
-      </c>
-      <c r="E75" t="n">
-        <v>98.75276922</v>
-      </c>
+        <v>100.1722554</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>99.61763126</v>
+        <v>99.39802009</v>
       </c>
       <c r="G75" t="n">
-        <v>98.43725053</v>
+        <v>100.2</v>
       </c>
       <c r="H75" t="n">
-        <v>100.91023545</v>
+        <v>97.79936858000001</v>
       </c>
       <c r="I75" t="n">
-        <v>86.23449567</v>
+        <v>105.4727395</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.32347818</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>100.3298832</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100.2300553</v>
+      </c>
       <c r="D76" t="n">
-        <v>100.11352915</v>
-      </c>
-      <c r="E76" t="n">
-        <v>102.48535359</v>
-      </c>
+        <v>100.2952095</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>100.23335462</v>
+        <v>98.88391238</v>
       </c>
       <c r="G76" t="n">
-        <v>100.00577213</v>
+        <v>100.4</v>
       </c>
       <c r="H76" t="n">
-        <v>97.99139052</v>
+        <v>102.8600387</v>
       </c>
       <c r="I76" t="n">
-        <v>94.79469769000001</v>
+        <v>100.0807873</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.41756004</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>102.25803765</v>
+      </c>
+      <c r="C77" t="n">
+        <v>101.54315505</v>
+      </c>
       <c r="D77" t="n">
-        <v>100.16263095</v>
-      </c>
-      <c r="E77" t="n">
-        <v>101.07083176</v>
-      </c>
+        <v>99.94410795</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>98.61915088000001</v>
+        <v>103.25316458</v>
       </c>
       <c r="G77" t="n">
-        <v>99.96119027</v>
+        <v>102</v>
       </c>
       <c r="H77" t="n">
-        <v>93.48929398</v>
+        <v>103.98310444</v>
       </c>
       <c r="I77" t="n">
-        <v>102.18161718</v>
+        <v>107.20616661</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>99.51960459</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>105.98077688</v>
+      </c>
+      <c r="C78" t="n">
+        <v>104.88131105</v>
+      </c>
       <c r="D78" t="n">
-        <v>100.23213368</v>
-      </c>
-      <c r="E78" t="n">
-        <v>102.28299252</v>
-      </c>
+        <v>100.26244429</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>107.06070722</v>
+        <v>100.14337142</v>
       </c>
       <c r="G78" t="n">
-        <v>101.23379199</v>
+        <v>106.7</v>
       </c>
       <c r="H78" t="n">
-        <v>96.98554346</v>
+        <v>106.89635303</v>
       </c>
       <c r="I78" t="n">
-        <v>107.60758468</v>
+        <v>129.92910024</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.88166943</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>97.18182944</v>
+      </c>
+      <c r="C79" t="n">
+        <v>98.76694856</v>
+      </c>
       <c r="D79" t="n">
-        <v>100.29932433</v>
-      </c>
-      <c r="E79" t="n">
-        <v>101.35188035</v>
-      </c>
+        <v>99.86378194</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>107.05591892</v>
+        <v>92.59937960000001</v>
       </c>
       <c r="G79" t="n">
-        <v>101.54561922</v>
+        <v>98.2</v>
       </c>
       <c r="H79" t="n">
-        <v>105.38663663</v>
+        <v>97.97858377</v>
       </c>
       <c r="I79" t="n">
-        <v>106.74371441</v>
+        <v>94.46890698</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.06580911</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>100.4769586</v>
+      </c>
+      <c r="C80" t="n">
+        <v>102.18891302</v>
+      </c>
       <c r="D80" t="n">
-        <v>100.30900801</v>
-      </c>
-      <c r="E80" t="n">
-        <v>100.03189403</v>
-      </c>
+        <v>100.02247766</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>94.11975964</v>
+        <v>99.04822982</v>
       </c>
       <c r="G80" t="n">
-        <v>99.59084141</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>99.05257829</v>
+        <v>99.04508996</v>
       </c>
       <c r="I80" t="n">
-        <v>97.22314745</v>
+        <v>87.45095812</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.60380809</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>100.23427636</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101.61652086</v>
+      </c>
       <c r="D81" t="n">
-        <v>100.36080005</v>
-      </c>
-      <c r="E81" t="n">
-        <v>100.04481152</v>
-      </c>
+        <v>100.12187563</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>98.64614947</v>
+        <v>99.91942338</v>
       </c>
       <c r="G81" t="n">
-        <v>99.77947999</v>
+        <v>97.3</v>
       </c>
       <c r="H81" t="n">
-        <v>100.51524519</v>
+        <v>98.66339316</v>
       </c>
       <c r="I81" t="n">
-        <v>96.22632633000001</v>
+        <v>78.5006114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>101.10405759</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>101.13949865</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100.83404608</v>
+      </c>
       <c r="D82" t="n">
-        <v>100.25627106</v>
-      </c>
-      <c r="E82" t="n">
-        <v>100.48586137</v>
-      </c>
+        <v>100.04943327</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>100.57274067</v>
+        <v>98.99418134</v>
       </c>
       <c r="G82" t="n">
-        <v>100.61274576</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>105.2757586</v>
+        <v>97.50306093</v>
       </c>
       <c r="I82" t="n">
-        <v>98.49574143</v>
+        <v>87.54346584</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>104.31464704</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>100.56072381</v>
+      </c>
+      <c r="C83" t="n">
+        <v>98.69448847</v>
+      </c>
       <c r="D83" t="n">
-        <v>100.21090122</v>
-      </c>
-      <c r="E83" t="n">
-        <v>100.01225364</v>
-      </c>
+        <v>99.98269526999999</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>101.66920436</v>
+        <v>98.45907539</v>
       </c>
       <c r="G83" t="n">
-        <v>102.42630128</v>
+        <v>99.8</v>
       </c>
       <c r="H83" t="n">
-        <v>111.02548168</v>
+        <v>98.11553585999999</v>
       </c>
       <c r="I83" t="n">
-        <v>112.14299916</v>
+        <v>103.78915184</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>104.36170527</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>99.41269131999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>99.1719946</v>
+      </c>
       <c r="D84" t="n">
-        <v>100.22842825</v>
-      </c>
-      <c r="E84" t="n">
-        <v>98.98064386</v>
-      </c>
+        <v>100.0735403</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>96.9717443</v>
+        <v>103.5050353</v>
       </c>
       <c r="G84" t="n">
-        <v>101.65976115</v>
+        <v>100.4</v>
       </c>
       <c r="H84" t="n">
-        <v>108.04709103</v>
+        <v>97.43157255</v>
       </c>
       <c r="I84" t="n">
-        <v>108.21239288</v>
+        <v>107.9313618</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>98.14973589</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>99.4297805599999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>99.93041352</v>
+      </c>
       <c r="D85" t="n">
-        <v>100.24211455</v>
-      </c>
-      <c r="E85" t="n">
-        <v>96.47588007</v>
-      </c>
+        <v>100.036308899999</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>99.45565523</v>
+        <v>105.890713399999</v>
       </c>
       <c r="G85" t="n">
-        <v>98.42809155</v>
+        <v>101.7</v>
       </c>
       <c r="H85" t="n">
-        <v>98.39637034</v>
+        <v>105.155020399999</v>
       </c>
       <c r="I85" t="n">
-        <v>94.62279995</v>
+        <v>110.735386199999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>99.40890639</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>99.42818831</v>
+      </c>
+      <c r="C86" t="n">
+        <v>100.2700661</v>
+      </c>
       <c r="D86" t="n">
-        <v>100.20654057</v>
-      </c>
-      <c r="E86" t="n">
-        <v>97.49479717</v>
-      </c>
+        <v>100.0552618</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>103.54634771</v>
+        <v>95.39269856999999</v>
       </c>
       <c r="G86" t="n">
-        <v>98.67813218000001</v>
+        <v>100</v>
       </c>
       <c r="H86" t="n">
-        <v>101.45334397</v>
+        <v>100.6726932</v>
       </c>
       <c r="I86" t="n">
-        <v>90.69262943</v>
+        <v>100.3836363</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.93176112</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>98.68896589000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.72883887</v>
+      </c>
       <c r="D87" t="n">
-        <v>100.3349565</v>
-      </c>
-      <c r="E87" t="n">
-        <v>102.66682584</v>
-      </c>
+        <v>100.0420547</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>109.51080605</v>
+        <v>101.7990128</v>
       </c>
       <c r="G87" t="n">
-        <v>100.18480084</v>
+        <v>99.5</v>
       </c>
       <c r="H87" t="n">
-        <v>102.11763715</v>
+        <v>102.1335406</v>
       </c>
       <c r="I87" t="n">
-        <v>91.34411849999999</v>
+        <v>95.17216659</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.42493234</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
+        <v>101.1034557</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100.8245937</v>
+      </c>
       <c r="D88" t="n">
-        <v>100.35048903</v>
-      </c>
-      <c r="E88" t="n">
-        <v>101.17023372</v>
-      </c>
+        <v>100.1202131</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>96.38019195</v>
+        <v>104.394503</v>
       </c>
       <c r="G88" t="n">
-        <v>99.60329541</v>
+        <v>101.1</v>
       </c>
       <c r="H88" t="n">
-        <v>97.8211654</v>
+        <v>105.4747223</v>
       </c>
       <c r="I88" t="n">
-        <v>95.47785415</v>
+        <v>101.0108056</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.31367796000001</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
+        <v>104.3594236</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.410884</v>
+      </c>
       <c r="D89" t="n">
-        <v>100.26752601</v>
-      </c>
-      <c r="E89" t="n">
-        <v>100.25765047</v>
-      </c>
+        <v>100.2456664</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>104.2100171</v>
+        <v>98.28995073</v>
       </c>
       <c r="G89" t="n">
-        <v>99.87920090999999</v>
+        <v>102.3</v>
       </c>
       <c r="H89" t="n">
-        <v>93.74383827</v>
+        <v>105.6654528</v>
       </c>
       <c r="I89" t="n">
-        <v>102.32025418</v>
+        <v>106.1606646</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.42854028000001</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>101.77496873</v>
+      </c>
+      <c r="C90" t="n">
+        <v>99.13257381</v>
+      </c>
       <c r="D90" t="n">
-        <v>100.27396482</v>
-      </c>
-      <c r="E90" t="n">
-        <v>102.29434579</v>
-      </c>
+        <v>100.20575395</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>106.32389016</v>
+        <v>93.77387629</v>
       </c>
       <c r="G90" t="n">
-        <v>100.69408357</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>97.85351912</v>
+        <v>104.13401022</v>
       </c>
       <c r="I90" t="n">
-        <v>101.82751087</v>
+        <v>94.58212666999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.27118416</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>99.67977218999999</v>
+      </c>
+      <c r="C91" t="n">
+        <v>97.53704501999999</v>
+      </c>
       <c r="D91" t="n">
-        <v>100.35084595</v>
-      </c>
-      <c r="E91" t="n">
-        <v>101.4304403</v>
-      </c>
+        <v>100.0571397</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>101.86326494</v>
+        <v>95.97838578</v>
       </c>
       <c r="G91" t="n">
-        <v>100.83321013</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>101.48455906</v>
+        <v>98.77638741</v>
       </c>
       <c r="I91" t="n">
-        <v>103.91481801</v>
+        <v>92.12216714</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.01743786999999</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>101.5008312</v>
+      </c>
+      <c r="C92" t="n">
+        <v>98.76951665</v>
+      </c>
       <c r="D92" t="n">
-        <v>100.32621701</v>
-      </c>
-      <c r="E92" t="n">
-        <v>99.99118747</v>
-      </c>
+        <v>100.1182741</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>97.00947908000001</v>
+        <v>99.4171626</v>
       </c>
       <c r="G92" t="n">
-        <v>99.75898447</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>97.77933858999999</v>
+        <v>101.8571364</v>
       </c>
       <c r="I92" t="n">
-        <v>99.51837523</v>
+        <v>95.02838049</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.0326644</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>101.1545549</v>
+      </c>
+      <c r="C93" t="n">
+        <v>98.24192662</v>
+      </c>
       <c r="D93" t="n">
-        <v>100.11818632</v>
-      </c>
-      <c r="E93" t="n">
-        <v>99.41480011</v>
-      </c>
+        <v>100.05557</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>98.68793015</v>
+        <v>96.56374196</v>
       </c>
       <c r="G93" t="n">
-        <v>99.59748328000001</v>
+        <v>99.3</v>
       </c>
       <c r="H93" t="n">
-        <v>99.4637207</v>
+        <v>104.2119575</v>
       </c>
       <c r="I93" t="n">
-        <v>98.35896011</v>
+        <v>93.83987847</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.98468355</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
+        <v>99.49587755</v>
+      </c>
+      <c r="C94" t="n">
+        <v>97.81960771</v>
+      </c>
       <c r="D94" t="n">
-        <v>100.08158842</v>
-      </c>
-      <c r="E94" t="n">
-        <v>99.75194264</v>
-      </c>
+        <v>100.1533106</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>98.4460799</v>
+        <v>104.9434364</v>
       </c>
       <c r="G94" t="n">
-        <v>101.15145484</v>
+        <v>99</v>
       </c>
       <c r="H94" t="n">
-        <v>101.90954217</v>
+        <v>95.79267818</v>
       </c>
       <c r="I94" t="n">
-        <v>111.33597272</v>
+        <v>98.86924498</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>102.1887569</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>99.80164211</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.47572827</v>
+      </c>
       <c r="D95" t="n">
-        <v>100.08352617</v>
-      </c>
-      <c r="E95" t="n">
-        <v>99.42412552</v>
-      </c>
+        <v>100.0270303</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>96.62890179999999</v>
+        <v>103.2367666</v>
       </c>
       <c r="G95" t="n">
-        <v>100.68647034</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>103.88475428</v>
+        <v>90.82461594999999</v>
       </c>
       <c r="I95" t="n">
-        <v>103.97278901</v>
+        <v>107.034266</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>106.13774536</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>98.88980228</v>
+      </c>
+      <c r="C96" t="n">
+        <v>100.7370949</v>
+      </c>
       <c r="D96" t="n">
-        <v>100.17900611</v>
-      </c>
-      <c r="E96" t="n">
-        <v>101.18383383</v>
-      </c>
+        <v>100.0988897</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>99.6800961</v>
+        <v>113.4933598</v>
       </c>
       <c r="G96" t="n">
-        <v>102.92306298</v>
+        <v>101.2</v>
       </c>
       <c r="H96" t="n">
-        <v>108.89662293</v>
+        <v>95.8130685</v>
       </c>
       <c r="I96" t="n">
-        <v>113.61332371</v>
+        <v>108.5169327</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>97.74822781</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
+        <v>98.22258198999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100.8900003</v>
+      </c>
       <c r="D97" t="n">
-        <v>100.11621242</v>
-      </c>
-      <c r="E97" t="n">
-        <v>98.18102894</v>
-      </c>
+        <v>100.132393</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>94.32323907</v>
+        <v>105.2663719</v>
       </c>
       <c r="G97" t="n">
-        <v>98.39660436</v>
+        <v>100.5</v>
       </c>
       <c r="H97" t="n">
-        <v>100.8603786</v>
+        <v>101.9275204</v>
       </c>
       <c r="I97" t="n">
-        <v>91.08462796000001</v>
+        <v>99.94545598000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>98.91296176</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
+        <v>99.06270017</v>
+      </c>
+      <c r="C98" t="n">
+        <v>101.04508748</v>
+      </c>
       <c r="D98" t="n">
-        <v>100.15785172</v>
-      </c>
-      <c r="E98" t="n">
-        <v>99.21458305</v>
-      </c>
+        <v>100.11490137</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>94.38708886000001</v>
+        <v>96.69860133</v>
       </c>
       <c r="G98" t="n">
-        <v>99.0624162</v>
+        <v>99.7</v>
       </c>
       <c r="H98" t="n">
-        <v>96.54660527</v>
+        <v>101.93009811</v>
       </c>
       <c r="I98" t="n">
-        <v>96.84525526</v>
+        <v>96.5144906</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>99.68841265</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>99.81423282999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>100.17237254</v>
+      </c>
       <c r="D99" t="n">
-        <v>100.10755036</v>
-      </c>
-      <c r="E99" t="n">
-        <v>100.80025657</v>
-      </c>
+        <v>100.0666316</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>98.78431079000001</v>
+        <v>99.79705687000001</v>
       </c>
       <c r="G99" t="n">
-        <v>99.07994604</v>
+        <v>98.8</v>
       </c>
       <c r="H99" t="n">
-        <v>97.30928135000001</v>
+        <v>103.70724048</v>
       </c>
       <c r="I99" t="n">
-        <v>90.75797358</v>
+        <v>87.68215178</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.45956668</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
+        <v>101.14301255</v>
+      </c>
+      <c r="C100" t="n">
+        <v>100.87156767</v>
+      </c>
       <c r="D100" t="n">
-        <v>99.9819794</v>
-      </c>
-      <c r="E100" t="n">
-        <v>101.63983943</v>
-      </c>
+        <v>100.03194166</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>98.42985602</v>
+        <v>98.76279518</v>
       </c>
       <c r="G100" t="n">
-        <v>99.85412531999999</v>
+        <v>101.1</v>
       </c>
       <c r="H100" t="n">
-        <v>92.24057119</v>
+        <v>101.90669727</v>
       </c>
       <c r="I100" t="n">
-        <v>99.86874392999999</v>
+        <v>103.67998203</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99.94617727000001</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>102.7568729</v>
+      </c>
+      <c r="C101" t="n">
+        <v>100.5939528</v>
+      </c>
       <c r="D101" t="n">
-        <v>100.13557997</v>
-      </c>
-      <c r="E101" t="n">
-        <v>104.20642902</v>
-      </c>
+        <v>100.1256999</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>100.71221183</v>
+        <v>100.7447488</v>
       </c>
       <c r="G101" t="n">
-        <v>100.73517555</v>
+        <v>102.2</v>
       </c>
       <c r="H101" t="n">
-        <v>94.10875584999999</v>
+        <v>105.7273678</v>
       </c>
       <c r="I101" t="n">
-        <v>101.44183092</v>
+        <v>109.4890848</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>99.21819975</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>107.9968864</v>
+      </c>
+      <c r="C102" t="n">
+        <v>102.0237129</v>
+      </c>
       <c r="D102" t="n">
-        <v>100.08812331</v>
-      </c>
-      <c r="E102" t="n">
-        <v>103.83558916</v>
-      </c>
+        <v>100.1360082</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>110.19405994</v>
+        <v>100.5557413</v>
       </c>
       <c r="G102" t="n">
-        <v>101.62516803</v>
+        <v>104.4</v>
       </c>
       <c r="H102" t="n">
-        <v>98.22701696999999</v>
+        <v>106.4148644</v>
       </c>
       <c r="I102" t="n">
-        <v>106.82198658</v>
+        <v>118.1400593</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>98.78712268</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>96.84665817</v>
+      </c>
+      <c r="C103" t="n">
+        <v>94.56915054</v>
+      </c>
       <c r="D103" t="n">
-        <v>100.03064008</v>
-      </c>
-      <c r="E103" t="n">
-        <v>100.40058384</v>
-      </c>
+        <v>100.046893</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>102.92528175</v>
+        <v>92.12537820999999</v>
       </c>
       <c r="G103" t="n">
-        <v>99.90578187</v>
+        <v>95.8</v>
       </c>
       <c r="H103" t="n">
-        <v>98.54981836</v>
+        <v>97.62611738</v>
       </c>
       <c r="I103" t="n">
-        <v>98.96204219000001</v>
+        <v>85.19883153000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.22374167</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
+        <v>98.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>95.90000000000001</v>
+      </c>
       <c r="D104" t="n">
-        <v>100.12629023</v>
-      </c>
-      <c r="E104" t="n">
-        <v>99.07643502000001</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>93.12107996</v>
+        <v>97.2</v>
       </c>
       <c r="G104" t="n">
-        <v>98.99944094</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>99.50789476999999</v>
+        <v>98.8</v>
       </c>
       <c r="I104" t="n">
-        <v>94.37302291</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.21360817</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="C105" t="n">
+        <v>97.7</v>
+      </c>
       <c r="D105" t="n">
-        <v>100.03641458</v>
-      </c>
-      <c r="E105" t="n">
-        <v>98.55201778</v>
-      </c>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>98.93773883999999</v>
+        <v>101.5</v>
       </c>
       <c r="G105" t="n">
-        <v>99.96942772</v>
+        <v>98.7</v>
       </c>
       <c r="H105" t="n">
-        <v>101.56070831</v>
+        <v>97.3</v>
       </c>
       <c r="I105" t="n">
-        <v>102.81077978</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>101.25517776</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
+        <v>99.20069377999999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>100.46616395</v>
+      </c>
       <c r="D106" t="n">
-        <v>100.10145084</v>
-      </c>
-      <c r="E106" t="n">
-        <v>99.70525633</v>
-      </c>
+        <v>99.94287135</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>101.33961561</v>
+        <v>99.97209226</v>
       </c>
       <c r="G106" t="n">
-        <v>101.53095379</v>
+        <v>99.2</v>
       </c>
       <c r="H106" t="n">
-        <v>102.28727636</v>
+        <v>93.2735431</v>
       </c>
       <c r="I106" t="n">
-        <v>113.71774921</v>
+        <v>98.19140049000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>102.25803765</v>
+        <v>99.63788716000001</v>
       </c>
       <c r="C107" t="n">
-        <v>101.54315505</v>
+        <v>101.55949023</v>
       </c>
       <c r="D107" t="n">
-        <v>99.94410795</v>
+        <v>99.938368</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>103.25316458</v>
+        <v>100.21439898</v>
       </c>
       <c r="G107" t="n">
-        <v>102</v>
+        <v>100.1</v>
       </c>
       <c r="H107" t="n">
-        <v>103.98310444</v>
+        <v>96.25287736999999</v>
       </c>
       <c r="I107" t="n">
-        <v>107.20616661</v>
+        <v>101.67807286</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>105.98077688</v>
+        <v>99.68675794000001</v>
       </c>
       <c r="C108" t="n">
-        <v>104.88131105</v>
+        <v>103.83921362</v>
       </c>
       <c r="D108" t="n">
-        <v>100.26244429</v>
+        <v>99.99305203999999</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>100.14337142</v>
+        <v>111.96284591</v>
       </c>
       <c r="G108" t="n">
-        <v>106.7</v>
+        <v>102.4</v>
       </c>
       <c r="H108" t="n">
-        <v>106.89635303</v>
+        <v>100.76434451</v>
       </c>
       <c r="I108" t="n">
-        <v>129.92910024</v>
+        <v>109.02118261</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>97.18182944</v>
+        <v>98.46577098</v>
       </c>
       <c r="C109" t="n">
-        <v>98.76694856</v>
+        <v>102.48526607</v>
       </c>
       <c r="D109" t="n">
-        <v>99.86378194</v>
+        <v>100.14266072</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>92.59937960000001</v>
+        <v>102.24930455</v>
       </c>
       <c r="G109" t="n">
-        <v>98.2</v>
+        <v>102.4</v>
       </c>
       <c r="H109" t="n">
-        <v>97.97858377</v>
+        <v>106.3915999</v>
       </c>
       <c r="I109" t="n">
-        <v>94.46890698</v>
+        <v>109.77220544</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>100.4769586</v>
+        <v>98.91515527</v>
       </c>
       <c r="C110" t="n">
-        <v>102.18891302</v>
+        <v>114.72533147</v>
       </c>
       <c r="D110" t="n">
-        <v>100.02247766</v>
+        <v>100.07031902</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>99.04822982</v>
+        <v>98.74420662999999</v>
       </c>
       <c r="G110" t="n">
-        <v>98.59999999999999</v>
+        <v>103.6</v>
       </c>
       <c r="H110" t="n">
-        <v>99.04508996</v>
+        <v>94.32164061</v>
       </c>
       <c r="I110" t="n">
-        <v>87.45095812</v>
+        <v>98.26642837</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.23427636</v>
+        <v>99.48106527</v>
       </c>
       <c r="C111" t="n">
-        <v>101.61652086</v>
+        <v>104.83686809</v>
       </c>
       <c r="D111" t="n">
-        <v>100.12187563</v>
+        <v>100.18296982</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>99.91942338</v>
+        <v>99.49034383999999</v>
       </c>
       <c r="G111" t="n">
-        <v>97.3</v>
+        <v>101.8</v>
       </c>
       <c r="H111" t="n">
-        <v>98.66339316</v>
+        <v>96.98624733</v>
       </c>
       <c r="I111" t="n">
-        <v>78.5006114</v>
+        <v>101.42253347</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>101.13949865</v>
+        <v>100.05421242</v>
       </c>
       <c r="C112" t="n">
-        <v>100.83404608</v>
+        <v>96.15447127</v>
       </c>
       <c r="D112" t="n">
-        <v>100.04943327</v>
+        <v>100.00253341</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>98.99418134</v>
+        <v>95.26216904</v>
       </c>
       <c r="G112" t="n">
-        <v>98.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>97.50306093</v>
+        <v>100.63767643</v>
       </c>
       <c r="I112" t="n">
-        <v>87.54346584</v>
+        <v>110.6130744</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.56072381</v>
+        <v>101.98454051</v>
       </c>
       <c r="C113" t="n">
-        <v>98.69448847</v>
+        <v>99.94504995</v>
       </c>
       <c r="D113" t="n">
-        <v>99.98269526999999</v>
+        <v>100.08779697</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>98.45907539</v>
+        <v>100.38392456</v>
       </c>
       <c r="G113" t="n">
-        <v>99.8</v>
+        <v>101.6</v>
       </c>
       <c r="H113" t="n">
-        <v>98.11553585999999</v>
+        <v>102.27483829</v>
       </c>
       <c r="I113" t="n">
-        <v>103.78915184</v>
+        <v>109.10288794</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.41269131999999</v>
+        <v>103.96765446</v>
       </c>
       <c r="C114" t="n">
-        <v>99.1719946</v>
+        <v>100.90985037</v>
       </c>
       <c r="D114" t="n">
-        <v>100.0735403</v>
+        <v>100.17526662</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>103.5050353</v>
+        <v>95.53032889000001</v>
       </c>
       <c r="G114" t="n">
-        <v>100.4</v>
+        <v>103.2</v>
       </c>
       <c r="H114" t="n">
-        <v>97.43157255</v>
+        <v>105.36951712</v>
       </c>
       <c r="I114" t="n">
-        <v>107.9313618</v>
+        <v>115.71125772</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99.4297805599999</v>
+        <v>96.41042016999999</v>
       </c>
       <c r="C115" t="n">
-        <v>99.93041352</v>
+        <v>99.89162002</v>
       </c>
       <c r="D115" t="n">
-        <v>100.036308899999</v>
+        <v>99.97994668</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>105.890713399999</v>
+        <v>94.8911322</v>
       </c>
       <c r="G115" t="n">
-        <v>101.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H115" t="n">
-        <v>105.155020399999</v>
+        <v>100.33849744</v>
       </c>
       <c r="I115" t="n">
-        <v>110.735386199999</v>
+        <v>97.36564468</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>98.17866281000001</v>
+        <v>100.45249631</v>
       </c>
       <c r="C116" t="n">
-        <v>98.28164254000001</v>
+        <v>100.89791724</v>
       </c>
       <c r="D116" t="n">
-        <v>100.1162286</v>
+        <v>100.02256786</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>95.98393984000001</v>
+        <v>102.71762889</v>
       </c>
       <c r="G116" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>98.3165838</v>
+        <v>102.59211397</v>
       </c>
       <c r="I116" t="n">
-        <v>99.09153856</v>
+        <v>95.51041518</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.26923174</v>
+        <v>99.93501039</v>
       </c>
       <c r="C117" t="n">
-        <v>98.7888165</v>
+        <v>99.83025189999999</v>
       </c>
       <c r="D117" t="n">
-        <v>100.1722554</v>
+        <v>99.98833432000001</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>99.39802009</v>
+        <v>106.36348116</v>
       </c>
       <c r="G117" t="n">
         <v>100.2</v>
       </c>
       <c r="H117" t="n">
-        <v>97.79936858000001</v>
+        <v>110.12336143</v>
       </c>
       <c r="I117" t="n">
-        <v>105.4727395</v>
+        <v>92.08919611</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.3298832</v>
+        <v>99.08153754999999</v>
       </c>
       <c r="C118" t="n">
-        <v>100.2300553</v>
+        <v>102.1947244</v>
       </c>
       <c r="D118" t="n">
-        <v>100.2952095</v>
+        <v>100.01350426</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>98.88391238</v>
+        <v>97.73287745</v>
       </c>
       <c r="G118" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="H118" t="n">
-        <v>102.8600387</v>
+        <v>105.09447588</v>
       </c>
       <c r="I118" t="n">
-        <v>100.0807873</v>
+        <v>90.31519459</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>104.3594236</v>
+        <v>100.43302151</v>
       </c>
       <c r="C119" t="n">
-        <v>102.410884</v>
+        <v>104.91919203</v>
       </c>
       <c r="D119" t="n">
-        <v>100.2456664</v>
+        <v>99.98319339</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>98.28995073</v>
+        <v>104.19164217</v>
       </c>
       <c r="G119" t="n">
-        <v>102.3</v>
+        <v>100.9</v>
       </c>
       <c r="H119" t="n">
-        <v>105.6654528</v>
+        <v>93.79437716</v>
       </c>
       <c r="I119" t="n">
-        <v>106.1606646</v>
+        <v>102.58405243</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>101.77496873</v>
+        <v>100.88752807</v>
       </c>
       <c r="C120" t="n">
-        <v>99.13257381</v>
+        <v>114.9582799</v>
       </c>
       <c r="D120" t="n">
-        <v>100.20575395</v>
+        <v>100.09339292</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>93.77387629</v>
+        <v>105.04795139</v>
       </c>
       <c r="G120" t="n">
-        <v>99.40000000000001</v>
+        <v>103.2</v>
       </c>
       <c r="H120" t="n">
-        <v>104.13401022</v>
+        <v>89.85137985999999</v>
       </c>
       <c r="I120" t="n">
-        <v>94.58212666999999</v>
+        <v>102.79181129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>99.67977218999999</v>
+        <v>99.8326644</v>
       </c>
       <c r="C121" t="n">
-        <v>97.53704501999999</v>
+        <v>115.01246007</v>
       </c>
       <c r="D121" t="n">
-        <v>100.0571397</v>
+        <v>100.0267512</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>95.97838578</v>
+        <v>106.70033807</v>
       </c>
       <c r="G121" t="n">
-        <v>98.09999999999999</v>
+        <v>103.5</v>
       </c>
       <c r="H121" t="n">
-        <v>98.77638741</v>
+        <v>92.40740671</v>
       </c>
       <c r="I121" t="n">
-        <v>92.12216714</v>
+        <v>97.64753761999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101.5008312</v>
+        <v>98.8</v>
       </c>
       <c r="C122" t="n">
-        <v>98.76951665</v>
+        <v>95.5</v>
       </c>
       <c r="D122" t="n">
-        <v>100.1182741</v>
+        <v>100.1</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>99.4171626</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="H122" t="n">
-        <v>101.8571364</v>
+        <v>101.8</v>
       </c>
       <c r="I122" t="n">
-        <v>95.02838049</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>101.1545549</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>98.24192662</v>
+        <v>95.3</v>
       </c>
       <c r="D123" t="n">
-        <v>100.05557</v>
+        <v>100.1</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>96.56374196</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>99.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H123" t="n">
-        <v>104.2119575</v>
+        <v>100</v>
       </c>
       <c r="I123" t="n">
-        <v>93.83987847</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.49587755</v>
+        <v>100.8</v>
       </c>
       <c r="C124" t="n">
-        <v>97.81960771</v>
+        <v>104.3</v>
       </c>
       <c r="D124" t="n">
-        <v>100.1533106</v>
+        <v>100</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>104.9434364</v>
+        <v>102.4</v>
       </c>
       <c r="G124" t="n">
-        <v>99</v>
+        <v>102.8</v>
       </c>
       <c r="H124" t="n">
-        <v>95.79267818</v>
+        <v>103.5</v>
       </c>
       <c r="I124" t="n">
-        <v>98.86924498</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.80164211</v>
+        <v>104.49033984</v>
       </c>
       <c r="C125" t="n">
-        <v>99.47572827</v>
+        <v>106.14635943</v>
       </c>
       <c r="D125" t="n">
-        <v>100.0270303</v>
+        <v>99.92014362</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>103.2367666</v>
+        <v>96.81155017</v>
       </c>
       <c r="G125" t="n">
-        <v>99.90000000000001</v>
+        <v>104.4</v>
       </c>
       <c r="H125" t="n">
-        <v>90.82461594999999</v>
+        <v>105.53646449</v>
       </c>
       <c r="I125" t="n">
-        <v>107.034266</v>
+        <v>115.30777786</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>98.88980228</v>
+        <v>103.00592215</v>
       </c>
       <c r="C126" t="n">
-        <v>100.7370949</v>
+        <v>107.11988251</v>
       </c>
       <c r="D126" t="n">
-        <v>100.0988897</v>
+        <v>100.40154914</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>113.4933598</v>
+        <v>94.19273524</v>
       </c>
       <c r="G126" t="n">
-        <v>101.2</v>
+        <v>104.3</v>
       </c>
       <c r="H126" t="n">
-        <v>95.8130685</v>
+        <v>104.76534591</v>
       </c>
       <c r="I126" t="n">
-        <v>108.5169327</v>
+        <v>109.51887415</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>98.22258198999999</v>
+        <v>96.46130417000001</v>
       </c>
       <c r="C127" t="n">
-        <v>100.8900003</v>
+        <v>94.81538217000001</v>
       </c>
       <c r="D127" t="n">
-        <v>100.132393</v>
+        <v>100.02399105</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>105.2663719</v>
+        <v>95.71392299</v>
       </c>
       <c r="G127" t="n">
-        <v>100.5</v>
+        <v>96.2</v>
       </c>
       <c r="H127" t="n">
-        <v>101.9275204</v>
+        <v>99.75317414</v>
       </c>
       <c r="I127" t="n">
-        <v>99.94545598000001</v>
+        <v>87.76969439</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.42818831</v>
+        <v>99.93690067999999</v>
       </c>
       <c r="C128" t="n">
-        <v>100.2700661</v>
+        <v>94.47962579999999</v>
       </c>
       <c r="D128" t="n">
-        <v>100.0552618</v>
+        <v>100.4388131</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>95.39269856999999</v>
+        <v>98.08178470999999</v>
       </c>
       <c r="G128" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H128" t="n">
-        <v>100.6726932</v>
+        <v>97.83166711</v>
       </c>
       <c r="I128" t="n">
-        <v>100.3836363</v>
+        <v>92.01020579999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>98.68896589000001</v>
+        <v>101.27740708</v>
       </c>
       <c r="C129" t="n">
-        <v>99.72883887</v>
+        <v>94.263586</v>
       </c>
       <c r="D129" t="n">
-        <v>100.0420547</v>
+        <v>100.34013728</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>101.7990128</v>
+        <v>95.89262660999999</v>
       </c>
       <c r="G129" t="n">
-        <v>99.5</v>
+        <v>96.5</v>
       </c>
       <c r="H129" t="n">
-        <v>102.1335406</v>
+        <v>99.24882117999999</v>
       </c>
       <c r="I129" t="n">
-        <v>95.17216659</v>
+        <v>87.54454457</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>101.1034557</v>
+        <v>100.09276848</v>
       </c>
       <c r="C130" t="n">
-        <v>100.8245937</v>
+        <v>102.18576466</v>
       </c>
       <c r="D130" t="n">
-        <v>100.1202131</v>
+        <v>100.07656214</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>104.394503</v>
+        <v>96.3483123</v>
       </c>
       <c r="G130" t="n">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
       <c r="H130" t="n">
-        <v>105.4747223</v>
+        <v>92.43116448000001</v>
       </c>
       <c r="I130" t="n">
-        <v>101.0108056</v>
+        <v>102.81260943</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>102.7568729</v>
+        <v>100.41872396</v>
       </c>
       <c r="C131" t="n">
-        <v>100.5939528</v>
+        <v>107.35655219</v>
       </c>
       <c r="D131" t="n">
-        <v>100.1256999</v>
+        <v>99.96555117</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>100.7447488</v>
+        <v>103.05891139</v>
       </c>
       <c r="G131" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="H131" t="n">
-        <v>105.7273678</v>
+        <v>95.5958935</v>
       </c>
       <c r="I131" t="n">
-        <v>109.4890848</v>
+        <v>106.27448685</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>107.9968864</v>
+        <v>99.56681087</v>
       </c>
       <c r="C132" t="n">
-        <v>102.0237129</v>
+        <v>101.37606817</v>
       </c>
       <c r="D132" t="n">
-        <v>100.1360082</v>
+        <v>100.04431458</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>100.5557413</v>
+        <v>109.36559714</v>
       </c>
       <c r="G132" t="n">
-        <v>104.4</v>
+        <v>101.4</v>
       </c>
       <c r="H132" t="n">
-        <v>106.4148644</v>
+        <v>99.59954721</v>
       </c>
       <c r="I132" t="n">
-        <v>118.1400593</v>
+        <v>106.35278039</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>96.84665817</v>
+        <v>99.05136982000001</v>
       </c>
       <c r="C133" t="n">
-        <v>94.56915054</v>
+        <v>99.24570543</v>
       </c>
       <c r="D133" t="n">
-        <v>100.046893</v>
+        <v>99.98490185999999</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>92.12537820999999</v>
+        <v>100.9763364</v>
       </c>
       <c r="G133" t="n">
-        <v>95.8</v>
+        <v>100.4</v>
       </c>
       <c r="H133" t="n">
-        <v>97.62611738</v>
+        <v>107.29991848</v>
       </c>
       <c r="I133" t="n">
-        <v>85.19883153000001</v>
+        <v>102.43134517</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
       <c r="C134" t="n">
-        <v>95.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>97.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>98.09999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="H134" t="n">
-        <v>98.8</v>
+        <v>102.9</v>
       </c>
       <c r="I134" t="n">
-        <v>94.5</v>
+        <v>116.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="C135" t="n">
-        <v>97.7</v>
+        <v>105.2</v>
       </c>
       <c r="D135" t="n">
-        <v>99.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="G135" t="n">
-        <v>98.7</v>
+        <v>102.4</v>
       </c>
       <c r="H135" t="n">
-        <v>97.3</v>
+        <v>104.3</v>
       </c>
       <c r="I135" t="n">
-        <v>95.40000000000001</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>99.20069377999999</v>
+        <v>100.3</v>
       </c>
       <c r="C136" t="n">
-        <v>100.46616395</v>
+        <v>100.5</v>
       </c>
       <c r="D136" t="n">
-        <v>99.94287135</v>
+        <v>100.6</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>99.97209226</v>
+        <v>98.2</v>
       </c>
       <c r="G136" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H136" t="n">
-        <v>93.2735431</v>
+        <v>103.4</v>
       </c>
       <c r="I136" t="n">
-        <v>98.19140049000001</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.63788716000001</v>
+        <v>103.3</v>
       </c>
       <c r="C137" t="n">
-        <v>101.55949023</v>
+        <v>103.7</v>
       </c>
       <c r="D137" t="n">
-        <v>99.938368</v>
+        <v>100.3</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>100.21439898</v>
+        <v>109.4</v>
       </c>
       <c r="G137" t="n">
-        <v>100.1</v>
+        <v>104.1</v>
       </c>
       <c r="H137" t="n">
-        <v>96.25287736999999</v>
+        <v>102.3</v>
       </c>
       <c r="I137" t="n">
-        <v>101.67807286</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.68675794000001</v>
+        <v>108.7</v>
       </c>
       <c r="C138" t="n">
-        <v>103.83921362</v>
+        <v>99</v>
       </c>
       <c r="D138" t="n">
-        <v>99.99305203999999</v>
+        <v>100.3</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>111.96284591</v>
+        <v>96.2</v>
       </c>
       <c r="G138" t="n">
-        <v>102.4</v>
+        <v>101.6</v>
       </c>
       <c r="H138" t="n">
-        <v>100.76434451</v>
+        <v>106.1</v>
       </c>
       <c r="I138" t="n">
-        <v>109.02118261</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>98.46577098</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>102.48526607</v>
+        <v>93.5</v>
       </c>
       <c r="D139" t="n">
-        <v>100.14266072</v>
+        <v>100</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>102.24930455</v>
+        <v>96.2</v>
       </c>
       <c r="G139" t="n">
-        <v>102.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>106.3915999</v>
+        <v>99.8</v>
       </c>
       <c r="I139" t="n">
-        <v>109.77220544</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.06270017</v>
+        <v>103</v>
       </c>
       <c r="C140" t="n">
-        <v>101.04508748</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>100.11490137</v>
+        <v>100.1</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>96.69860133</v>
+        <v>101.4</v>
       </c>
       <c r="G140" t="n">
-        <v>99.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>101.93009811</v>
+        <v>96.2</v>
       </c>
       <c r="I140" t="n">
-        <v>96.5144906</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>99.81423282999999</v>
+        <v>103</v>
       </c>
       <c r="C141" t="n">
-        <v>100.17237254</v>
+        <v>94</v>
       </c>
       <c r="D141" t="n">
-        <v>100.0666316</v>
+        <v>100</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>99.79705687000001</v>
+        <v>102.8</v>
       </c>
       <c r="G141" t="n">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="H141" t="n">
-        <v>103.70724048</v>
+        <v>97.3</v>
       </c>
       <c r="I141" t="n">
-        <v>87.68215178</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>101.14301255</v>
+        <v>100.1</v>
       </c>
       <c r="C142" t="n">
-        <v>100.87156767</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>100.03194166</v>
+        <v>100</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>98.76279518</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G142" t="n">
-        <v>101.1</v>
+        <v>97.8</v>
       </c>
       <c r="H142" t="n">
-        <v>101.90669727</v>
+        <v>95.5</v>
       </c>
       <c r="I142" t="n">
-        <v>103.67998203</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>101.98454051</v>
+        <v>100</v>
       </c>
       <c r="C143" t="n">
-        <v>99.94504995</v>
+        <v>98.3</v>
       </c>
       <c r="D143" t="n">
-        <v>100.08779697</v>
+        <v>100</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>100.38392456</v>
+        <v>100.9</v>
       </c>
       <c r="G143" t="n">
-        <v>101.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H143" t="n">
-        <v>102.27483829</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>109.10288794</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>103.96765446</v>
+        <v>97.7</v>
       </c>
       <c r="C144" t="n">
-        <v>100.90985037</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>100.17526662</v>
+        <v>100.1</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>95.53032889000001</v>
+        <v>107.3</v>
       </c>
       <c r="G144" t="n">
-        <v>103.2</v>
+        <v>100.8</v>
       </c>
       <c r="H144" t="n">
-        <v>105.36951712</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I144" t="n">
-        <v>115.71125772</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>96.41042016999999</v>
+        <v>97.5</v>
       </c>
       <c r="C145" t="n">
-        <v>99.89162002</v>
+        <v>97.7</v>
       </c>
       <c r="D145" t="n">
-        <v>99.97994668</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>94.8911322</v>
+        <v>99.8</v>
       </c>
       <c r="G145" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="H145" t="n">
-        <v>100.33849744</v>
+        <v>100</v>
       </c>
       <c r="I145" t="n">
-        <v>97.36564468</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>100.45249631</v>
+        <v>97.7</v>
       </c>
       <c r="C146" t="n">
-        <v>100.89791724</v>
+        <v>105.2</v>
       </c>
       <c r="D146" t="n">
-        <v>100.02256786</v>
+        <v>100.2</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>102.71762889</v>
+        <v>102.2</v>
       </c>
       <c r="G146" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="H146" t="n">
-        <v>102.59211397</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I146" t="n">
-        <v>95.51041518</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>99.93501039</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>99.83025189999999</v>
+        <v>100.1</v>
       </c>
       <c r="D147" t="n">
-        <v>99.98833432000001</v>
+        <v>100.2</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>106.36348116</v>
+        <v>101.3</v>
       </c>
       <c r="G147" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
       <c r="H147" t="n">
-        <v>110.12336143</v>
+        <v>101.5</v>
       </c>
       <c r="I147" t="n">
-        <v>92.08919611</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>99.08153754999999</v>
+        <v>100.4</v>
       </c>
       <c r="C148" t="n">
-        <v>102.1947244</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>100.01350426</v>
+        <v>100.2</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>97.73287745</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="H148" t="n">
-        <v>105.09447588</v>
+        <v>104.7</v>
       </c>
       <c r="I148" t="n">
-        <v>90.31519459</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.43302151</v>
+        <v>104.1</v>
       </c>
       <c r="C149" t="n">
-        <v>104.91919203</v>
+        <v>99.2</v>
       </c>
       <c r="D149" t="n">
-        <v>99.98319339</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>104.19164217</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="H149" t="n">
-        <v>93.79437716</v>
+        <v>107.2</v>
       </c>
       <c r="I149" t="n">
-        <v>102.58405243</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.88752807</v>
+        <v>104.8</v>
       </c>
       <c r="C150" t="n">
-        <v>114.9582799</v>
+        <v>98.5</v>
       </c>
       <c r="D150" t="n">
-        <v>100.09339292</v>
+        <v>100.1</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>105.04795139</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>103.2</v>
+        <v>101.4</v>
       </c>
       <c r="H150" t="n">
-        <v>89.85137985999999</v>
+        <v>103</v>
       </c>
       <c r="I150" t="n">
-        <v>102.79181129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>99.8326644</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>115.01246007</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>100.0267512</v>
+        <v>100.5</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>106.70033807</v>
+        <v>100.3</v>
       </c>
       <c r="G151" t="n">
-        <v>103.5</v>
+        <v>98.8</v>
       </c>
       <c r="H151" t="n">
-        <v>92.40740671</v>
+        <v>97.7</v>
       </c>
       <c r="I151" t="n">
-        <v>97.64753761999999</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>98.91515527</v>
+        <v>101.2</v>
       </c>
       <c r="C152" t="n">
-        <v>114.72533147</v>
+        <v>100.4</v>
       </c>
       <c r="D152" t="n">
-        <v>100.07031902</v>
+        <v>100.7</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>98.74420662999999</v>
+        <v>106.3</v>
       </c>
       <c r="G152" t="n">
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="H152" t="n">
-        <v>94.32164061</v>
+        <v>105.2</v>
       </c>
       <c r="I152" t="n">
-        <v>98.26642837</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>99.48106527</v>
+        <v>99</v>
       </c>
       <c r="C153" t="n">
-        <v>104.83686809</v>
+        <v>101.9</v>
       </c>
       <c r="D153" t="n">
-        <v>100.18296982</v>
+        <v>100.5</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>99.49034383999999</v>
+        <v>101.4</v>
       </c>
       <c r="G153" t="n">
-        <v>101.8</v>
+        <v>98.7</v>
       </c>
       <c r="H153" t="n">
-        <v>96.98624733</v>
+        <v>101.5</v>
       </c>
       <c r="I153" t="n">
-        <v>101.42253347</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>100.05421242</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>96.15447127</v>
+        <v>101</v>
       </c>
       <c r="D154" t="n">
-        <v>100.00253341</v>
+        <v>100</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>95.26216904</v>
+        <v>95.7</v>
       </c>
       <c r="G154" t="n">
-        <v>99.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>100.63767643</v>
+        <v>95.5</v>
       </c>
       <c r="I154" t="n">
-        <v>110.6130744</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>104.49033984</v>
+        <v>100.5</v>
       </c>
       <c r="C155" t="n">
-        <v>106.14635943</v>
+        <v>111.8</v>
       </c>
       <c r="D155" t="n">
-        <v>99.92014362</v>
+        <v>100.1</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>96.81155017</v>
+        <v>100.3</v>
       </c>
       <c r="G155" t="n">
-        <v>104.4</v>
+        <v>103</v>
       </c>
       <c r="H155" t="n">
-        <v>105.53646449</v>
+        <v>96.2</v>
       </c>
       <c r="I155" t="n">
-        <v>115.30777786</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>103.00592215</v>
+        <v>100</v>
       </c>
       <c r="C156" t="n">
-        <v>107.11988251</v>
+        <v>100.6</v>
       </c>
       <c r="D156" t="n">
-        <v>100.40154914</v>
+        <v>100</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>94.19273524</v>
+        <v>103.1</v>
       </c>
       <c r="G156" t="n">
-        <v>104.3</v>
+        <v>100.5</v>
       </c>
       <c r="H156" t="n">
-        <v>104.76534591</v>
+        <v>99</v>
       </c>
       <c r="I156" t="n">
-        <v>109.51887415</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>96.46130417000001</v>
+        <v>100.8</v>
       </c>
       <c r="C157" t="n">
-        <v>94.81538217000001</v>
+        <v>103</v>
       </c>
       <c r="D157" t="n">
-        <v>100.02399105</v>
+        <v>100.2</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>95.71392299</v>
+        <v>105.4</v>
       </c>
       <c r="G157" t="n">
-        <v>96.2</v>
+        <v>101.9</v>
       </c>
       <c r="H157" t="n">
-        <v>99.75317414</v>
+        <v>101.3</v>
       </c>
       <c r="I157" t="n">
-        <v>87.76969439</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.93690067999999</v>
+        <v>105.5</v>
       </c>
       <c r="C158" t="n">
-        <v>94.47962579999999</v>
+        <v>94.7</v>
       </c>
       <c r="D158" t="n">
-        <v>100.4388131</v>
+        <v>100</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>98.08178470999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G158" t="n">
-        <v>97</v>
+        <v>102.8</v>
       </c>
       <c r="H158" t="n">
-        <v>97.83166711</v>
+        <v>109.2</v>
       </c>
       <c r="I158" t="n">
-        <v>92.01020579999999</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>101.27740708</v>
+        <v>98.5</v>
       </c>
       <c r="C159" t="n">
-        <v>94.263586</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>100.34013728</v>
+        <v>100.1</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>95.89262660999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>96.5</v>
+        <v>98</v>
       </c>
       <c r="H159" t="n">
-        <v>99.24882117999999</v>
+        <v>98.8</v>
       </c>
       <c r="I159" t="n">
-        <v>87.54454457</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.09276848</v>
+        <v>99.2</v>
       </c>
       <c r="C160" t="n">
-        <v>102.18576466</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>100.07656214</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>96.3483123</v>
+        <v>100.2</v>
       </c>
       <c r="G160" t="n">
-        <v>100.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H160" t="n">
-        <v>92.43116448000001</v>
+        <v>100.4</v>
       </c>
       <c r="I160" t="n">
-        <v>102.81260943</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>100.41872396</v>
+        <v>100.5</v>
       </c>
       <c r="C161" t="n">
-        <v>107.35655219</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>99.96555117</v>
+        <v>99.8</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>103.05891139</v>
+        <v>99.8</v>
       </c>
       <c r="G161" t="n">
-        <v>102.8</v>
+        <v>99</v>
       </c>
       <c r="H161" t="n">
-        <v>95.5958935</v>
+        <v>99.3</v>
       </c>
       <c r="I161" t="n">
-        <v>106.27448685</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>99.56681087</v>
+        <v>100</v>
       </c>
       <c r="C162" t="n">
-        <v>101.37606817</v>
+        <v>98.7</v>
       </c>
       <c r="D162" t="n">
-        <v>100.04431458</v>
+        <v>99.8</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>109.36559714</v>
+        <v>98.7</v>
       </c>
       <c r="G162" t="n">
-        <v>101.4</v>
+        <v>99.3</v>
       </c>
       <c r="H162" t="n">
-        <v>99.59954721</v>
+        <v>99.7</v>
       </c>
       <c r="I162" t="n">
-        <v>106.35278039</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.05136982000001</v>
+        <v>98.8</v>
       </c>
       <c r="C163" t="n">
-        <v>99.24570543</v>
+        <v>98.8</v>
       </c>
       <c r="D163" t="n">
-        <v>99.98490185999999</v>
+        <v>100</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>100.9763364</v>
+        <v>97.8</v>
       </c>
       <c r="G163" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="H163" t="n">
-        <v>107.29991848</v>
+        <v>98.3</v>
       </c>
       <c r="I163" t="n">
-        <v>102.43134517</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>98.8</v>
+        <v>100.3</v>
       </c>
       <c r="C164" t="n">
-        <v>95.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G164" t="n">
+        <v>99</v>
+      </c>
+      <c r="H164" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="I164" t="n">
         <v>98.09999999999999</v>
-      </c>
-      <c r="G164" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="H164" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="I164" t="n">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>100</v>
-      </c>
-      <c r="I165" t="n">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C166" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>100</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="G166" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="H166" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="I166" t="n">
-        <v>108.5</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="C167" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="G167" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="H167" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="I167" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>99</v>
-      </c>
-      <c r="D168" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="G168" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="H168" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C169" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>100</v>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="G169" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I169" t="n">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>103</v>
-      </c>
-      <c r="C170" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D170" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G170" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>103</v>
-      </c>
-      <c r="C171" t="n">
-        <v>94</v>
-      </c>
-      <c r="D171" t="n">
-        <v>100</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="G171" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="H171" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="I171" t="n">
-        <v>94.40000000000001</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D172" t="n">
-        <v>100</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="H172" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="I172" t="n">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>100</v>
-      </c>
-      <c r="C173" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>100</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G173" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="I173" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D174" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="G174" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="H174" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="I174" t="n">
-        <v>108.6</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C175" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G175" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H175" t="n">
-        <v>100</v>
-      </c>
-      <c r="I175" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="C176" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G176" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="H176" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="I176" t="n">
-        <v>116.6</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C177" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="D177" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="n">
-        <v>103</v>
-      </c>
-      <c r="G177" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="H177" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="I177" t="n">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="C178" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="D178" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G178" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="I178" t="n">
-        <v>91.7</v>
       </c>
     </row>
   </sheetData>
